--- a/EEPROMs/Z80 SND FREQ CALC.xlsx
+++ b/EEPROMs/Z80 SND FREQ CALC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="96">
   <si>
     <t>F</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>z80</t>
+  </si>
+  <si>
+    <t>midi NOTE</t>
   </si>
 </sst>
 </file>
@@ -695,32 +701,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:P293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="E1">
         <v>2500000</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
@@ -756,7 +763,7 @@
         <v>001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -778,8 +785,14 @@
       <c r="L4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -829,8 +842,15 @@
         <f>IF(L5&lt;4,DEC2BIN(2^L5,4),"1111")</f>
         <v>0001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <f>IF(C5&lt;&gt;"",C5,"")</f>
+        <v>1004</v>
+      </c>
+      <c r="P5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="I6" s="3" t="str">
         <f>BIN2HEX(I5)</f>
         <v>8F</v>
@@ -847,8 +867,12 @@
         <f>BIN2HEX("1"&amp;L3&amp;M5)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" t="str">
+        <f t="shared" ref="O6:O69" si="0">IF(C6&lt;&gt;"",C6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -888,25 +912,41 @@
         <v>00110100</v>
       </c>
       <c r="K7" s="6" t="str">
-        <f t="shared" ref="K7:K38" si="0">I8&amp;J8</f>
+        <f t="shared" ref="K7" si="1">I8&amp;J8</f>
         <v>8E34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="P7">
+        <f>IF(O7&lt;&gt;"",P5+1,"")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="I8" s="3" t="str">
         <f>BIN2HEX(I7)</f>
         <v>8E</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f t="shared" ref="J8:J39" si="1">BIN2HEX(J7,2)</f>
+        <f t="shared" ref="J8" si="2">BIN2HEX(J7,2)</f>
         <v>34</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f t="shared" ref="K8" si="2">I8&amp;J8</f>
+        <f t="shared" ref="K8" si="3">I8&amp;J8</f>
         <v>8E34</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P71" si="4">IF(O8&lt;&gt;"",P6+1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -942,29 +982,45 @@
         <v>10001101</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J40" si="3">"00"&amp;H9</f>
+        <f t="shared" ref="J9" si="5">"00"&amp;H9</f>
         <v>00111110</v>
       </c>
       <c r="K9" s="6" t="str">
-        <f t="shared" ref="K9:K40" si="4">I10&amp;J10</f>
+        <f t="shared" ref="K9" si="6">I10&amp;J10</f>
         <v>8D3E</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>894</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="I10" s="3" t="str">
         <f>BIN2HEX(I9)</f>
         <v>8D</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f t="shared" ref="J10:J41" si="5">BIN2HEX(J9,2)</f>
+        <f t="shared" ref="J10" si="7">BIN2HEX(J9,2)</f>
         <v>3E</v>
       </c>
       <c r="K10" s="6" t="str">
-        <f t="shared" ref="K10" si="6">I10&amp;J10</f>
+        <f t="shared" ref="K10" si="8">I10&amp;J10</f>
         <v>8D3E</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -972,57 +1028,73 @@
         <v>92.5</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11" si="7">TRUNC($E$2/(32*B11))</f>
+        <f t="shared" ref="C11" si="9">TRUNC($E$2/(32*B11))</f>
         <v>844</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" ref="D11" si="8">DEC2HEX(C11)</f>
+        <f t="shared" ref="D11" si="10">DEC2HEX(C11)</f>
         <v>34C</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E53" si="9">DEC2BIN(MOD(QUOTIENT(C11,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C11,256^0),256),8)</f>
+        <f t="shared" ref="E11" si="11">DEC2BIN(MOD(QUOTIENT(C11,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C11,256^0),256),8)</f>
         <v>0000001101001100</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11" si="10">RIGHT("000000" &amp; E11,10)</f>
+        <f t="shared" ref="F11" si="12">RIGHT("000000" &amp; E11,10)</f>
         <v>1101001100</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11" si="11">LEFT(F11,4)</f>
+        <f t="shared" ref="G11" si="13">LEFT(F11,4)</f>
         <v>1101</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H53" si="12">RIGHT(F11,6)</f>
+        <f t="shared" ref="H11" si="14">RIGHT(F11,6)</f>
         <v>001100</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ref="I11:I53" si="13">"1"&amp;$K$3&amp;G11</f>
+        <f t="shared" ref="I11" si="15">"1"&amp;$K$3&amp;G11</f>
         <v>10001101</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ref="J11:J42" si="14">"00"&amp;H11</f>
+        <f t="shared" ref="J11" si="16">"00"&amp;H11</f>
         <v>00001100</v>
       </c>
       <c r="K11" s="6" t="str">
-        <f t="shared" ref="K11:K42" si="15">I12&amp;J12</f>
+        <f t="shared" ref="K11" si="17">I12&amp;J12</f>
         <v>8D0C</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I53" si="16">BIN2HEX(I11)</f>
+        <f t="shared" ref="I12" si="18">BIN2HEX(I11)</f>
         <v>8D</v>
       </c>
       <c r="J12" s="3" t="str">
-        <f t="shared" ref="J12:J43" si="17">BIN2HEX(J11,2)</f>
+        <f t="shared" ref="J12" si="19">BIN2HEX(J11,2)</f>
         <v>0C</v>
       </c>
       <c r="K12" s="6" t="str">
-        <f t="shared" ref="K12" si="18">I12&amp;J12</f>
+        <f t="shared" ref="K12" si="20">I12&amp;J12</f>
         <v>8D0C</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1030,57 +1102,73 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="19">TRUNC($E$2/(32*B13))</f>
+        <f t="shared" ref="C13" si="21">TRUNC($E$2/(32*B13))</f>
         <v>797</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13" si="20">DEC2HEX(C13)</f>
+        <f t="shared" ref="D13" si="22">DEC2HEX(C13)</f>
         <v>31D</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ref="E13:E53" si="21">DEC2BIN(MOD(QUOTIENT(C13,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C13,256^0),256),8)</f>
+        <f t="shared" ref="E13" si="23">DEC2BIN(MOD(QUOTIENT(C13,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C13,256^0),256),8)</f>
         <v>0000001100011101</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13" si="22">RIGHT("000000" &amp; E13,10)</f>
+        <f t="shared" ref="F13" si="24">RIGHT("000000" &amp; E13,10)</f>
         <v>1100011101</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13" si="23">LEFT(F13,4)</f>
+        <f t="shared" ref="G13" si="25">LEFT(F13,4)</f>
         <v>1100</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H53" si="24">RIGHT(F13,6)</f>
+        <f t="shared" ref="H13" si="26">RIGHT(F13,6)</f>
         <v>011101</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I53" si="25">"1"&amp;$K$3&amp;G13</f>
+        <f t="shared" ref="I13" si="27">"1"&amp;$K$3&amp;G13</f>
         <v>10001100</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J44" si="26">"00"&amp;H13</f>
+        <f t="shared" ref="J13" si="28">"00"&amp;H13</f>
         <v>00011101</v>
       </c>
       <c r="K13" s="6" t="str">
-        <f t="shared" ref="K13:K44" si="27">I14&amp;J14</f>
+        <f t="shared" ref="K13" si="29">I14&amp;J14</f>
         <v>8C1D</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="I14" s="3" t="str">
-        <f t="shared" ref="I14:I53" si="28">BIN2HEX(I13)</f>
+        <f t="shared" ref="I14" si="30">BIN2HEX(I13)</f>
         <v>8C</v>
       </c>
       <c r="J14" s="3" t="str">
-        <f t="shared" ref="J14:J45" si="29">BIN2HEX(J13,2)</f>
+        <f t="shared" ref="J14" si="31">BIN2HEX(J13,2)</f>
         <v>1D</v>
       </c>
       <c r="K14" s="6" t="str">
-        <f t="shared" ref="K14" si="30">I14&amp;J14</f>
+        <f t="shared" ref="K14" si="32">I14&amp;J14</f>
         <v>8C1D</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1088,57 +1176,73 @@
         <v>103.83</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" si="31">TRUNC($E$2/(32*B15))</f>
+        <f t="shared" ref="C15" si="33">TRUNC($E$2/(32*B15))</f>
         <v>752</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ref="D15" si="32">DEC2HEX(C15)</f>
+        <f t="shared" ref="D15" si="34">DEC2HEX(C15)</f>
         <v>2F0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E53" si="33">DEC2BIN(MOD(QUOTIENT(C15,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C15,256^0),256),8)</f>
+        <f t="shared" ref="E15" si="35">DEC2BIN(MOD(QUOTIENT(C15,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C15,256^0),256),8)</f>
         <v>0000001011110000</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15" si="34">RIGHT("000000" &amp; E15,10)</f>
+        <f t="shared" ref="F15" si="36">RIGHT("000000" &amp; E15,10)</f>
         <v>1011110000</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15" si="35">LEFT(F15,4)</f>
+        <f t="shared" ref="G15" si="37">LEFT(F15,4)</f>
         <v>1011</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ref="H15:H53" si="36">RIGHT(F15,6)</f>
+        <f t="shared" ref="H15" si="38">RIGHT(F15,6)</f>
         <v>110000</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15:I53" si="37">"1"&amp;$K$3&amp;G15</f>
+        <f t="shared" ref="I15" si="39">"1"&amp;$K$3&amp;G15</f>
         <v>10001011</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:J46" si="38">"00"&amp;H15</f>
+        <f t="shared" ref="J15" si="40">"00"&amp;H15</f>
         <v>00110000</v>
       </c>
       <c r="K15" s="6" t="str">
-        <f t="shared" ref="K15:K46" si="39">I16&amp;J16</f>
+        <f t="shared" ref="K15" si="41">I16&amp;J16</f>
         <v>8B30</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="I16" s="3" t="str">
-        <f t="shared" ref="I16:I53" si="40">BIN2HEX(I15)</f>
+        <f t="shared" ref="I16" si="42">BIN2HEX(I15)</f>
         <v>8B</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f t="shared" ref="J16:J47" si="41">BIN2HEX(J15,2)</f>
+        <f t="shared" ref="J16" si="43">BIN2HEX(J15,2)</f>
         <v>30</v>
       </c>
       <c r="K16" s="6" t="str">
-        <f t="shared" ref="K16" si="42">I16&amp;J16</f>
+        <f t="shared" ref="K16" si="44">I16&amp;J16</f>
         <v>8B30</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1146,57 +1250,73 @@
         <v>110</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17" si="43">TRUNC($E$2/(32*B17))</f>
+        <f t="shared" ref="C17" si="45">TRUNC($E$2/(32*B17))</f>
         <v>710</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" ref="D17" si="44">DEC2HEX(C17)</f>
+        <f t="shared" ref="D17" si="46">DEC2HEX(C17)</f>
         <v>2C6</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:E53" si="45">DEC2BIN(MOD(QUOTIENT(C17,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C17,256^0),256),8)</f>
+        <f t="shared" ref="E17" si="47">DEC2BIN(MOD(QUOTIENT(C17,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C17,256^0),256),8)</f>
         <v>0000001011000110</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17" si="46">RIGHT("000000" &amp; E17,10)</f>
+        <f t="shared" ref="F17" si="48">RIGHT("000000" &amp; E17,10)</f>
         <v>1011000110</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17" si="47">LEFT(F17,4)</f>
+        <f t="shared" ref="G17" si="49">LEFT(F17,4)</f>
         <v>1011</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H53" si="48">RIGHT(F17,6)</f>
+        <f t="shared" ref="H17" si="50">RIGHT(F17,6)</f>
         <v>000110</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" ref="I17:I53" si="49">"1"&amp;$K$3&amp;G17</f>
+        <f t="shared" ref="I17" si="51">"1"&amp;$K$3&amp;G17</f>
         <v>10001011</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ref="J17:J48" si="50">"00"&amp;H17</f>
+        <f t="shared" ref="J17" si="52">"00"&amp;H17</f>
         <v>00000110</v>
       </c>
       <c r="K17" s="6" t="str">
-        <f t="shared" ref="K17:K48" si="51">I18&amp;J18</f>
+        <f t="shared" ref="K17" si="53">I18&amp;J18</f>
         <v>8B06</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="I18" s="3" t="str">
-        <f t="shared" ref="I18:I53" si="52">BIN2HEX(I17)</f>
+        <f t="shared" ref="I18" si="54">BIN2HEX(I17)</f>
         <v>8B</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f t="shared" ref="J18:J49" si="53">BIN2HEX(J17,2)</f>
+        <f t="shared" ref="J18" si="55">BIN2HEX(J17,2)</f>
         <v>06</v>
       </c>
       <c r="K18" s="6" t="str">
-        <f t="shared" ref="K18" si="54">I18&amp;J18</f>
+        <f t="shared" ref="K18" si="56">I18&amp;J18</f>
         <v>8B06</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1204,57 +1324,73 @@
         <v>116.54</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19" si="55">TRUNC($E$2/(32*B19))</f>
+        <f t="shared" ref="C19" si="57">TRUNC($E$2/(32*B19))</f>
         <v>670</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" ref="D19" si="56">DEC2HEX(C19)</f>
+        <f t="shared" ref="D19" si="58">DEC2HEX(C19)</f>
         <v>29E</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E53" si="57">DEC2BIN(MOD(QUOTIENT(C19,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C19,256^0),256),8)</f>
+        <f t="shared" ref="E19" si="59">DEC2BIN(MOD(QUOTIENT(C19,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C19,256^0),256),8)</f>
         <v>0000001010011110</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19" si="58">RIGHT("000000" &amp; E19,10)</f>
+        <f t="shared" ref="F19" si="60">RIGHT("000000" &amp; E19,10)</f>
         <v>1010011110</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19" si="59">LEFT(F19,4)</f>
+        <f t="shared" ref="G19" si="61">LEFT(F19,4)</f>
         <v>1010</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H53" si="60">RIGHT(F19,6)</f>
+        <f t="shared" ref="H19" si="62">RIGHT(F19,6)</f>
         <v>011110</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ref="I19:I53" si="61">"1"&amp;$K$3&amp;G19</f>
+        <f t="shared" ref="I19" si="63">"1"&amp;$K$3&amp;G19</f>
         <v>10001010</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19:J50" si="62">"00"&amp;H19</f>
+        <f t="shared" ref="J19" si="64">"00"&amp;H19</f>
         <v>00011110</v>
       </c>
       <c r="K19" s="6" t="str">
-        <f t="shared" ref="K19:K50" si="63">I20&amp;J20</f>
+        <f t="shared" ref="K19" si="65">I20&amp;J20</f>
         <v>8A1E</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>670</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="I20" s="3" t="str">
-        <f t="shared" ref="I20:I53" si="64">BIN2HEX(I19)</f>
+        <f t="shared" ref="I20" si="66">BIN2HEX(I19)</f>
         <v>8A</v>
       </c>
       <c r="J20" s="3" t="str">
-        <f t="shared" ref="J20:J51" si="65">BIN2HEX(J19,2)</f>
+        <f t="shared" ref="J20" si="67">BIN2HEX(J19,2)</f>
         <v>1E</v>
       </c>
       <c r="K20" s="6" t="str">
-        <f t="shared" ref="K20" si="66">I20&amp;J20</f>
+        <f t="shared" ref="K20" si="68">I20&amp;J20</f>
         <v>8A1E</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1262,57 +1398,73 @@
         <v>123.47</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21" si="67">TRUNC($E$2/(32*B21))</f>
+        <f t="shared" ref="C21" si="69">TRUNC($E$2/(32*B21))</f>
         <v>632</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" ref="D21" si="68">DEC2HEX(C21)</f>
+        <f t="shared" ref="D21" si="70">DEC2HEX(C21)</f>
         <v>278</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21:E53" si="69">DEC2BIN(MOD(QUOTIENT(C21,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C21,256^0),256),8)</f>
+        <f t="shared" ref="E21" si="71">DEC2BIN(MOD(QUOTIENT(C21,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C21,256^0),256),8)</f>
         <v>0000001001111000</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ref="F21" si="70">RIGHT("000000" &amp; E21,10)</f>
+        <f t="shared" ref="F21" si="72">RIGHT("000000" &amp; E21,10)</f>
         <v>1001111000</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ref="G21" si="71">LEFT(F21,4)</f>
+        <f t="shared" ref="G21" si="73">LEFT(F21,4)</f>
         <v>1001</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H53" si="72">RIGHT(F21,6)</f>
+        <f t="shared" ref="H21" si="74">RIGHT(F21,6)</f>
         <v>111000</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" ref="I21:I53" si="73">"1"&amp;$K$3&amp;G21</f>
+        <f t="shared" ref="I21" si="75">"1"&amp;$K$3&amp;G21</f>
         <v>10001001</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:J52" si="74">"00"&amp;H21</f>
+        <f t="shared" ref="J21" si="76">"00"&amp;H21</f>
         <v>00111000</v>
       </c>
       <c r="K21" s="6" t="str">
-        <f t="shared" ref="K21:K52" si="75">I22&amp;J22</f>
+        <f t="shared" ref="K21" si="77">I22&amp;J22</f>
         <v>8938</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="I22" s="3" t="str">
-        <f t="shared" ref="I22:I53" si="76">BIN2HEX(I21)</f>
+        <f t="shared" ref="I22" si="78">BIN2HEX(I21)</f>
         <v>89</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" ref="J22:J53" si="77">BIN2HEX(J21,2)</f>
+        <f t="shared" ref="J22" si="79">BIN2HEX(J21,2)</f>
         <v>38</v>
       </c>
       <c r="K22" s="6" t="str">
-        <f t="shared" ref="K22" si="78">I22&amp;J22</f>
+        <f t="shared" ref="K22" si="80">I22&amp;J22</f>
         <v>8938</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1320,57 +1472,73 @@
         <v>130.81</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" si="79">TRUNC($E$2/(32*B23))</f>
+        <f t="shared" ref="C23" si="81">TRUNC($E$2/(32*B23))</f>
         <v>597</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23" si="80">DEC2HEX(C23)</f>
+        <f t="shared" ref="D23" si="82">DEC2HEX(C23)</f>
         <v>255</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:E53" si="81">DEC2BIN(MOD(QUOTIENT(C23,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C23,256^0),256),8)</f>
+        <f t="shared" ref="E23" si="83">DEC2BIN(MOD(QUOTIENT(C23,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C23,256^0),256),8)</f>
         <v>0000001001010101</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" ref="F23" si="82">RIGHT("000000" &amp; E23,10)</f>
+        <f t="shared" ref="F23" si="84">RIGHT("000000" &amp; E23,10)</f>
         <v>1001010101</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23" si="83">LEFT(F23,4)</f>
+        <f t="shared" ref="G23" si="85">LEFT(F23,4)</f>
         <v>1001</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ref="H23:H53" si="84">RIGHT(F23,6)</f>
+        <f t="shared" ref="H23" si="86">RIGHT(F23,6)</f>
         <v>010101</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I53" si="85">"1"&amp;$K$3&amp;G23</f>
+        <f t="shared" ref="I23" si="87">"1"&amp;$K$3&amp;G23</f>
         <v>10001001</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J54" si="86">"00"&amp;H23</f>
+        <f t="shared" ref="J23" si="88">"00"&amp;H23</f>
         <v>00010101</v>
       </c>
       <c r="K23" s="6" t="str">
-        <f t="shared" ref="K23:K54" si="87">I24&amp;J24</f>
+        <f t="shared" ref="K23" si="89">I24&amp;J24</f>
         <v>8915</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="I24" s="3" t="str">
-        <f t="shared" ref="I24:I53" si="88">BIN2HEX(I23)</f>
+        <f t="shared" ref="I24" si="90">BIN2HEX(I23)</f>
         <v>89</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" ref="J24:J55" si="89">BIN2HEX(J23,2)</f>
+        <f t="shared" ref="J24" si="91">BIN2HEX(J23,2)</f>
         <v>15</v>
       </c>
       <c r="K24" s="6" t="str">
-        <f t="shared" ref="K24" si="90">I24&amp;J24</f>
+        <f t="shared" ref="K24" si="92">I24&amp;J24</f>
         <v>8915</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1378,57 +1546,73 @@
         <v>138.59</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="91">TRUNC($E$2/(32*B25))</f>
+        <f t="shared" ref="C25" si="93">TRUNC($E$2/(32*B25))</f>
         <v>563</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" ref="D25" si="92">DEC2HEX(C25)</f>
+        <f t="shared" ref="D25" si="94">DEC2HEX(C25)</f>
         <v>233</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E53" si="93">DEC2BIN(MOD(QUOTIENT(C25,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C25,256^0),256),8)</f>
+        <f t="shared" ref="E25" si="95">DEC2BIN(MOD(QUOTIENT(C25,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C25,256^0),256),8)</f>
         <v>0000001000110011</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ref="F25" si="94">RIGHT("000000" &amp; E25,10)</f>
+        <f t="shared" ref="F25" si="96">RIGHT("000000" &amp; E25,10)</f>
         <v>1000110011</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25" si="95">LEFT(F25,4)</f>
+        <f t="shared" ref="G25" si="97">LEFT(F25,4)</f>
         <v>1000</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25:H53" si="96">RIGHT(F25,6)</f>
+        <f t="shared" ref="H25" si="98">RIGHT(F25,6)</f>
         <v>110011</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ref="I25:I53" si="97">"1"&amp;$K$3&amp;G25</f>
+        <f t="shared" ref="I25" si="99">"1"&amp;$K$3&amp;G25</f>
         <v>10001000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:J56" si="98">"00"&amp;H25</f>
+        <f t="shared" ref="J25" si="100">"00"&amp;H25</f>
         <v>00110011</v>
       </c>
       <c r="K25" s="6" t="str">
-        <f t="shared" ref="K25:K56" si="99">I26&amp;J26</f>
+        <f t="shared" ref="K25" si="101">I26&amp;J26</f>
         <v>8833</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>563</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="I26" s="3" t="str">
-        <f t="shared" ref="I26:I53" si="100">BIN2HEX(I25)</f>
+        <f t="shared" ref="I26" si="102">BIN2HEX(I25)</f>
         <v>88</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" ref="J26:J57" si="101">BIN2HEX(J25,2)</f>
+        <f t="shared" ref="J26" si="103">BIN2HEX(J25,2)</f>
         <v>33</v>
       </c>
       <c r="K26" s="6" t="str">
-        <f t="shared" ref="K26" si="102">I26&amp;J26</f>
+        <f t="shared" ref="K26" si="104">I26&amp;J26</f>
         <v>8833</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1436,57 +1620,73 @@
         <v>146.83000000000001</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="103">TRUNC($E$2/(32*B27))</f>
+        <f t="shared" ref="C27" si="105">TRUNC($E$2/(32*B27))</f>
         <v>532</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" ref="D27" si="104">DEC2HEX(C27)</f>
+        <f t="shared" ref="D27" si="106">DEC2HEX(C27)</f>
         <v>214</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27:E53" si="105">DEC2BIN(MOD(QUOTIENT(C27,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C27,256^0),256),8)</f>
+        <f t="shared" ref="E27" si="107">DEC2BIN(MOD(QUOTIENT(C27,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C27,256^0),256),8)</f>
         <v>0000001000010100</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27" si="106">RIGHT("000000" &amp; E27,10)</f>
+        <f t="shared" ref="F27" si="108">RIGHT("000000" &amp; E27,10)</f>
         <v>1000010100</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27" si="107">LEFT(F27,4)</f>
+        <f t="shared" ref="G27" si="109">LEFT(F27,4)</f>
         <v>1000</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:H53" si="108">RIGHT(F27,6)</f>
+        <f t="shared" ref="H27" si="110">RIGHT(F27,6)</f>
         <v>010100</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ref="I27:I53" si="109">"1"&amp;$K$3&amp;G27</f>
+        <f t="shared" ref="I27" si="111">"1"&amp;$K$3&amp;G27</f>
         <v>10001000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:J58" si="110">"00"&amp;H27</f>
+        <f t="shared" ref="J27" si="112">"00"&amp;H27</f>
         <v>00010100</v>
       </c>
       <c r="K27" s="6" t="str">
-        <f t="shared" ref="K27:K58" si="111">I28&amp;J28</f>
+        <f t="shared" ref="K27" si="113">I28&amp;J28</f>
         <v>8814</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="I28" s="3" t="str">
-        <f t="shared" ref="I28:I53" si="112">BIN2HEX(I27)</f>
+        <f t="shared" ref="I28" si="114">BIN2HEX(I27)</f>
         <v>88</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f t="shared" ref="J28:J59" si="113">BIN2HEX(J27,2)</f>
+        <f t="shared" ref="J28" si="115">BIN2HEX(J27,2)</f>
         <v>14</v>
       </c>
       <c r="K28" s="6" t="str">
-        <f t="shared" ref="K28" si="114">I28&amp;J28</f>
+        <f t="shared" ref="K28" si="116">I28&amp;J28</f>
         <v>8814</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1494,57 +1694,73 @@
         <v>155.56</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29" si="115">TRUNC($E$2/(32*B29))</f>
+        <f t="shared" ref="C29" si="117">TRUNC($E$2/(32*B29))</f>
         <v>502</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ref="D29" si="116">DEC2HEX(C29)</f>
+        <f t="shared" ref="D29" si="118">DEC2HEX(C29)</f>
         <v>1F6</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E53" si="117">DEC2BIN(MOD(QUOTIENT(C29,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C29,256^0),256),8)</f>
+        <f t="shared" ref="E29" si="119">DEC2BIN(MOD(QUOTIENT(C29,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C29,256^0),256),8)</f>
         <v>0000000111110110</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="118">RIGHT("000000" &amp; E29,10)</f>
+        <f t="shared" ref="F29" si="120">RIGHT("000000" &amp; E29,10)</f>
         <v>0111110110</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29" si="119">LEFT(F29,4)</f>
+        <f t="shared" ref="G29" si="121">LEFT(F29,4)</f>
         <v>0111</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:H53" si="120">RIGHT(F29,6)</f>
+        <f t="shared" ref="H29" si="122">RIGHT(F29,6)</f>
         <v>110110</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" ref="I29:I53" si="121">"1"&amp;$K$3&amp;G29</f>
+        <f t="shared" ref="I29" si="123">"1"&amp;$K$3&amp;G29</f>
         <v>10000111</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29:J60" si="122">"00"&amp;H29</f>
+        <f t="shared" ref="J29" si="124">"00"&amp;H29</f>
         <v>00110110</v>
       </c>
       <c r="K29" s="6" t="str">
-        <f t="shared" ref="K29:K60" si="123">I30&amp;J30</f>
+        <f t="shared" ref="K29" si="125">I30&amp;J30</f>
         <v>8736</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="I30" s="3" t="str">
-        <f t="shared" ref="I30:I53" si="124">BIN2HEX(I29)</f>
+        <f t="shared" ref="I30" si="126">BIN2HEX(I29)</f>
         <v>87</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" ref="J30:J61" si="125">BIN2HEX(J29,2)</f>
+        <f t="shared" ref="J30" si="127">BIN2HEX(J29,2)</f>
         <v>36</v>
       </c>
       <c r="K30" s="6" t="str">
-        <f t="shared" ref="K30" si="126">I30&amp;J30</f>
+        <f t="shared" ref="K30" si="128">I30&amp;J30</f>
         <v>8736</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1552,57 +1768,73 @@
         <v>164.81</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31" si="127">TRUNC($E$2/(32*B31))</f>
+        <f t="shared" ref="C31" si="129">TRUNC($E$2/(32*B31))</f>
         <v>474</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" ref="D31" si="128">DEC2HEX(C31)</f>
+        <f t="shared" ref="D31" si="130">DEC2HEX(C31)</f>
         <v>1DA</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" ref="E31:E53" si="129">DEC2BIN(MOD(QUOTIENT(C31,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C31,256^0),256),8)</f>
+        <f t="shared" ref="E31" si="131">DEC2BIN(MOD(QUOTIENT(C31,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C31,256^0),256),8)</f>
         <v>0000000111011010</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ref="F31" si="130">RIGHT("000000" &amp; E31,10)</f>
+        <f t="shared" ref="F31" si="132">RIGHT("000000" &amp; E31,10)</f>
         <v>0111011010</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ref="G31" si="131">LEFT(F31,4)</f>
+        <f t="shared" ref="G31" si="133">LEFT(F31,4)</f>
         <v>0111</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:H53" si="132">RIGHT(F31,6)</f>
+        <f t="shared" ref="H31" si="134">RIGHT(F31,6)</f>
         <v>011010</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I53" si="133">"1"&amp;$K$3&amp;G31</f>
+        <f t="shared" ref="I31" si="135">"1"&amp;$K$3&amp;G31</f>
         <v>10000111</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J62" si="134">"00"&amp;H31</f>
+        <f t="shared" ref="J31" si="136">"00"&amp;H31</f>
         <v>00011010</v>
       </c>
       <c r="K31" s="6" t="str">
-        <f t="shared" ref="K31:K62" si="135">I32&amp;J32</f>
+        <f t="shared" ref="K31" si="137">I32&amp;J32</f>
         <v>871A</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="I32" s="3" t="str">
-        <f t="shared" ref="I32:I53" si="136">BIN2HEX(I31)</f>
+        <f t="shared" ref="I32" si="138">BIN2HEX(I31)</f>
         <v>87</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" ref="J32:J63" si="137">BIN2HEX(J31,2)</f>
+        <f t="shared" ref="J32" si="139">BIN2HEX(J31,2)</f>
         <v>1A</v>
       </c>
       <c r="K32" s="6" t="str">
-        <f t="shared" ref="K32" si="138">I32&amp;J32</f>
+        <f t="shared" ref="K32" si="140">I32&amp;J32</f>
         <v>871A</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1610,57 +1842,73 @@
         <v>174.61</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33" si="139">TRUNC($E$2/(32*B33))</f>
+        <f t="shared" ref="C33" si="141">TRUNC($E$2/(32*B33))</f>
         <v>447</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" ref="D33" si="140">DEC2HEX(C33)</f>
+        <f t="shared" ref="D33" si="142">DEC2HEX(C33)</f>
         <v>1BF</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33:E53" si="141">DEC2BIN(MOD(QUOTIENT(C33,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C33,256^0),256),8)</f>
+        <f t="shared" ref="E33" si="143">DEC2BIN(MOD(QUOTIENT(C33,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C33,256^0),256),8)</f>
         <v>0000000110111111</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="142">RIGHT("000000" &amp; E33,10)</f>
+        <f t="shared" ref="F33" si="144">RIGHT("000000" &amp; E33,10)</f>
         <v>0110111111</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33" si="143">LEFT(F33,4)</f>
+        <f t="shared" ref="G33" si="145">LEFT(F33,4)</f>
         <v>0110</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:H53" si="144">RIGHT(F33,6)</f>
+        <f t="shared" ref="H33" si="146">RIGHT(F33,6)</f>
         <v>111111</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33:I53" si="145">"1"&amp;$K$3&amp;G33</f>
+        <f t="shared" ref="I33" si="147">"1"&amp;$K$3&amp;G33</f>
         <v>10000110</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33:J64" si="146">"00"&amp;H33</f>
+        <f t="shared" ref="J33" si="148">"00"&amp;H33</f>
         <v>00111111</v>
       </c>
       <c r="K33" s="6" t="str">
-        <f t="shared" ref="K33:K64" si="147">I34&amp;J34</f>
+        <f t="shared" ref="K33" si="149">I34&amp;J34</f>
         <v>863F</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="I34" s="3" t="str">
-        <f t="shared" ref="I34:I53" si="148">BIN2HEX(I33)</f>
+        <f t="shared" ref="I34" si="150">BIN2HEX(I33)</f>
         <v>86</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" ref="J34:J65" si="149">BIN2HEX(J33,2)</f>
+        <f t="shared" ref="J34" si="151">BIN2HEX(J33,2)</f>
         <v>3F</v>
       </c>
       <c r="K34" s="6" t="str">
-        <f t="shared" ref="K34" si="150">I34&amp;J34</f>
+        <f t="shared" ref="K34" si="152">I34&amp;J34</f>
         <v>863F</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1668,57 +1916,73 @@
         <v>185</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35" si="151">TRUNC($E$2/(32*B35))</f>
+        <f t="shared" ref="C35" si="153">TRUNC($E$2/(32*B35))</f>
         <v>422</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" ref="D35" si="152">DEC2HEX(C35)</f>
+        <f t="shared" ref="D35" si="154">DEC2HEX(C35)</f>
         <v>1A6</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E53" si="153">DEC2BIN(MOD(QUOTIENT(C35,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C35,256^0),256),8)</f>
+        <f t="shared" ref="E35" si="155">DEC2BIN(MOD(QUOTIENT(C35,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C35,256^0),256),8)</f>
         <v>0000000110100110</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35" si="154">RIGHT("000000" &amp; E35,10)</f>
+        <f t="shared" ref="F35" si="156">RIGHT("000000" &amp; E35,10)</f>
         <v>0110100110</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35" si="155">LEFT(F35,4)</f>
+        <f t="shared" ref="G35" si="157">LEFT(F35,4)</f>
         <v>0110</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H53" si="156">RIGHT(F35,6)</f>
+        <f t="shared" ref="H35" si="158">RIGHT(F35,6)</f>
         <v>100110</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" ref="I35:I53" si="157">"1"&amp;$K$3&amp;G35</f>
+        <f t="shared" ref="I35" si="159">"1"&amp;$K$3&amp;G35</f>
         <v>10000110</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ref="J35:J66" si="158">"00"&amp;H35</f>
+        <f t="shared" ref="J35" si="160">"00"&amp;H35</f>
         <v>00100110</v>
       </c>
       <c r="K35" s="6" t="str">
-        <f t="shared" ref="K35:K66" si="159">I36&amp;J36</f>
+        <f t="shared" ref="K35" si="161">I36&amp;J36</f>
         <v>8626</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="I36" s="3" t="str">
-        <f t="shared" ref="I36:I53" si="160">BIN2HEX(I35)</f>
+        <f t="shared" ref="I36" si="162">BIN2HEX(I35)</f>
         <v>86</v>
       </c>
       <c r="J36" s="3" t="str">
-        <f t="shared" ref="J36:J67" si="161">BIN2HEX(J35,2)</f>
+        <f t="shared" ref="J36" si="163">BIN2HEX(J35,2)</f>
         <v>26</v>
       </c>
       <c r="K36" s="6" t="str">
-        <f t="shared" ref="K36" si="162">I36&amp;J36</f>
+        <f t="shared" ref="K36" si="164">I36&amp;J36</f>
         <v>8626</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1726,57 +1990,73 @@
         <v>196</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" si="163">TRUNC($E$2/(32*B37))</f>
+        <f t="shared" ref="C37" si="165">TRUNC($E$2/(32*B37))</f>
         <v>398</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ref="D37" si="164">DEC2HEX(C37)</f>
+        <f t="shared" ref="D37" si="166">DEC2HEX(C37)</f>
         <v>18E</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ref="E37:E53" si="165">DEC2BIN(MOD(QUOTIENT(C37,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C37,256^0),256),8)</f>
+        <f t="shared" ref="E37" si="167">DEC2BIN(MOD(QUOTIENT(C37,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C37,256^0),256),8)</f>
         <v>0000000110001110</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37" si="166">RIGHT("000000" &amp; E37,10)</f>
+        <f t="shared" ref="F37" si="168">RIGHT("000000" &amp; E37,10)</f>
         <v>0110001110</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37" si="167">LEFT(F37,4)</f>
+        <f t="shared" ref="G37" si="169">LEFT(F37,4)</f>
         <v>0110</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H53" si="168">RIGHT(F37,6)</f>
+        <f t="shared" ref="H37" si="170">RIGHT(F37,6)</f>
         <v>001110</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I53" si="169">"1"&amp;$K$3&amp;G37</f>
+        <f t="shared" ref="I37" si="171">"1"&amp;$K$3&amp;G37</f>
         <v>10000110</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37:J68" si="170">"00"&amp;H37</f>
+        <f t="shared" ref="J37" si="172">"00"&amp;H37</f>
         <v>00001110</v>
       </c>
       <c r="K37" s="6" t="str">
-        <f t="shared" ref="K37:K68" si="171">I38&amp;J38</f>
+        <f t="shared" ref="K37" si="173">I38&amp;J38</f>
         <v>860E</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="I38" s="3" t="str">
-        <f t="shared" ref="I38:I53" si="172">BIN2HEX(I37)</f>
+        <f t="shared" ref="I38" si="174">BIN2HEX(I37)</f>
         <v>86</v>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" ref="J38:J69" si="173">BIN2HEX(J37,2)</f>
+        <f t="shared" ref="J38" si="175">BIN2HEX(J37,2)</f>
         <v>0E</v>
       </c>
       <c r="K38" s="6" t="str">
-        <f t="shared" ref="K38" si="174">I38&amp;J38</f>
+        <f t="shared" ref="K38" si="176">I38&amp;J38</f>
         <v>860E</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1784,57 +2064,73 @@
         <v>207.65</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39" si="175">TRUNC($E$2/(32*B39))</f>
+        <f t="shared" ref="C39" si="177">TRUNC($E$2/(32*B39))</f>
         <v>376</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" ref="D39" si="176">DEC2HEX(C39)</f>
+        <f t="shared" ref="D39" si="178">DEC2HEX(C39)</f>
         <v>178</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" ref="E39:E53" si="177">DEC2BIN(MOD(QUOTIENT(C39,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C39,256^0),256),8)</f>
+        <f t="shared" ref="E39" si="179">DEC2BIN(MOD(QUOTIENT(C39,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C39,256^0),256),8)</f>
         <v>0000000101111000</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39" si="178">RIGHT("000000" &amp; E39,10)</f>
+        <f t="shared" ref="F39" si="180">RIGHT("000000" &amp; E39,10)</f>
         <v>0101111000</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39" si="179">LEFT(F39,4)</f>
+        <f t="shared" ref="G39" si="181">LEFT(F39,4)</f>
         <v>0101</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" ref="H39:H53" si="180">RIGHT(F39,6)</f>
+        <f t="shared" ref="H39" si="182">RIGHT(F39,6)</f>
         <v>111000</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" ref="I39:I53" si="181">"1"&amp;$K$3&amp;G39</f>
+        <f t="shared" ref="I39" si="183">"1"&amp;$K$3&amp;G39</f>
         <v>10000101</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ref="J39:J70" si="182">"00"&amp;H39</f>
+        <f t="shared" ref="J39" si="184">"00"&amp;H39</f>
         <v>00111000</v>
       </c>
       <c r="K39" s="6" t="str">
-        <f t="shared" ref="K39:K70" si="183">I40&amp;J40</f>
+        <f t="shared" ref="K39" si="185">I40&amp;J40</f>
         <v>8538</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="I40" s="3" t="str">
-        <f t="shared" ref="I40:I53" si="184">BIN2HEX(I39)</f>
+        <f t="shared" ref="I40" si="186">BIN2HEX(I39)</f>
         <v>85</v>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" ref="J40:J71" si="185">BIN2HEX(J39,2)</f>
+        <f t="shared" ref="J40" si="187">BIN2HEX(J39,2)</f>
         <v>38</v>
       </c>
       <c r="K40" s="6" t="str">
-        <f t="shared" ref="K40" si="186">I40&amp;J40</f>
+        <f t="shared" ref="K40" si="188">I40&amp;J40</f>
         <v>8538</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1842,57 +2138,73 @@
         <v>220</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41" si="187">TRUNC($E$2/(32*B41))</f>
+        <f t="shared" ref="C41" si="189">TRUNC($E$2/(32*B41))</f>
         <v>355</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" ref="D41" si="188">DEC2HEX(C41)</f>
+        <f t="shared" ref="D41" si="190">DEC2HEX(C41)</f>
         <v>163</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E53" si="189">DEC2BIN(MOD(QUOTIENT(C41,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C41,256^0),256),8)</f>
+        <f t="shared" ref="E41" si="191">DEC2BIN(MOD(QUOTIENT(C41,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C41,256^0),256),8)</f>
         <v>0000000101100011</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" ref="F41" si="190">RIGHT("000000" &amp; E41,10)</f>
+        <f t="shared" ref="F41" si="192">RIGHT("000000" &amp; E41,10)</f>
         <v>0101100011</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ref="G41" si="191">LEFT(F41,4)</f>
+        <f t="shared" ref="G41" si="193">LEFT(F41,4)</f>
         <v>0101</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ref="H41:H53" si="192">RIGHT(F41,6)</f>
+        <f t="shared" ref="H41" si="194">RIGHT(F41,6)</f>
         <v>100011</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" ref="I41:I53" si="193">"1"&amp;$K$3&amp;G41</f>
+        <f t="shared" ref="I41" si="195">"1"&amp;$K$3&amp;G41</f>
         <v>10000101</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ref="J41:J72" si="194">"00"&amp;H41</f>
+        <f t="shared" ref="J41" si="196">"00"&amp;H41</f>
         <v>00100011</v>
       </c>
       <c r="K41" s="6" t="str">
-        <f t="shared" ref="K41:K72" si="195">I42&amp;J42</f>
+        <f t="shared" ref="K41" si="197">I42&amp;J42</f>
         <v>8523</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="I42" s="3" t="str">
-        <f t="shared" ref="I42:I53" si="196">BIN2HEX(I41)</f>
+        <f t="shared" ref="I42" si="198">BIN2HEX(I41)</f>
         <v>85</v>
       </c>
       <c r="J42" s="3" t="str">
-        <f t="shared" ref="J42:J73" si="197">BIN2HEX(J41,2)</f>
+        <f t="shared" ref="J42" si="199">BIN2HEX(J41,2)</f>
         <v>23</v>
       </c>
       <c r="K42" s="6" t="str">
-        <f t="shared" ref="K42" si="198">I42&amp;J42</f>
+        <f t="shared" ref="K42" si="200">I42&amp;J42</f>
         <v>8523</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1900,57 +2212,73 @@
         <v>233.08</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43" si="199">TRUNC($E$2/(32*B43))</f>
+        <f t="shared" ref="C43" si="201">TRUNC($E$2/(32*B43))</f>
         <v>335</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" ref="D43" si="200">DEC2HEX(C43)</f>
+        <f t="shared" ref="D43" si="202">DEC2HEX(C43)</f>
         <v>14F</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ref="E43:E53" si="201">DEC2BIN(MOD(QUOTIENT(C43,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C43,256^0),256),8)</f>
+        <f t="shared" ref="E43" si="203">DEC2BIN(MOD(QUOTIENT(C43,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C43,256^0),256),8)</f>
         <v>0000000101001111</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" ref="F43" si="202">RIGHT("000000" &amp; E43,10)</f>
+        <f t="shared" ref="F43" si="204">RIGHT("000000" &amp; E43,10)</f>
         <v>0101001111</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ref="G43" si="203">LEFT(F43,4)</f>
+        <f t="shared" ref="G43" si="205">LEFT(F43,4)</f>
         <v>0101</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" ref="H43:H53" si="204">RIGHT(F43,6)</f>
+        <f t="shared" ref="H43" si="206">RIGHT(F43,6)</f>
         <v>001111</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ref="I43:I53" si="205">"1"&amp;$K$3&amp;G43</f>
+        <f t="shared" ref="I43" si="207">"1"&amp;$K$3&amp;G43</f>
         <v>10000101</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43:J74" si="206">"00"&amp;H43</f>
+        <f t="shared" ref="J43" si="208">"00"&amp;H43</f>
         <v>00001111</v>
       </c>
       <c r="K43" s="6" t="str">
-        <f t="shared" ref="K43:K74" si="207">I44&amp;J44</f>
+        <f t="shared" ref="K43" si="209">I44&amp;J44</f>
         <v>850F</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="I44" s="3" t="str">
-        <f t="shared" ref="I44:I53" si="208">BIN2HEX(I43)</f>
+        <f t="shared" ref="I44" si="210">BIN2HEX(I43)</f>
         <v>85</v>
       </c>
       <c r="J44" s="3" t="str">
-        <f t="shared" ref="J44:J75" si="209">BIN2HEX(J43,2)</f>
+        <f t="shared" ref="J44" si="211">BIN2HEX(J43,2)</f>
         <v>0F</v>
       </c>
       <c r="K44" s="6" t="str">
-        <f t="shared" ref="K44" si="210">I44&amp;J44</f>
+        <f t="shared" ref="K44" si="212">I44&amp;J44</f>
         <v>850F</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1958,57 +2286,73 @@
         <v>246.94</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" si="211">TRUNC($E$2/(32*B45))</f>
+        <f t="shared" ref="C45" si="213">TRUNC($E$2/(32*B45))</f>
         <v>316</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" ref="D45" si="212">DEC2HEX(C45)</f>
+        <f t="shared" ref="D45" si="214">DEC2HEX(C45)</f>
         <v>13C</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ref="E45:E53" si="213">DEC2BIN(MOD(QUOTIENT(C45,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C45,256^0),256),8)</f>
+        <f t="shared" ref="E45" si="215">DEC2BIN(MOD(QUOTIENT(C45,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C45,256^0),256),8)</f>
         <v>0000000100111100</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ref="F45" si="214">RIGHT("000000" &amp; E45,10)</f>
+        <f t="shared" ref="F45" si="216">RIGHT("000000" &amp; E45,10)</f>
         <v>0100111100</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45" si="215">LEFT(F45,4)</f>
+        <f t="shared" ref="G45" si="217">LEFT(F45,4)</f>
         <v>0100</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H53" si="216">RIGHT(F45,6)</f>
+        <f t="shared" ref="H45" si="218">RIGHT(F45,6)</f>
         <v>111100</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45:I53" si="217">"1"&amp;$K$3&amp;G45</f>
+        <f t="shared" ref="I45" si="219">"1"&amp;$K$3&amp;G45</f>
         <v>10000100</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45:J76" si="218">"00"&amp;H45</f>
+        <f t="shared" ref="J45" si="220">"00"&amp;H45</f>
         <v>00111100</v>
       </c>
       <c r="K45" s="6" t="str">
-        <f t="shared" ref="K45:K76" si="219">I46&amp;J46</f>
+        <f t="shared" ref="K45" si="221">I46&amp;J46</f>
         <v>843C</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="I46" s="3" t="str">
-        <f t="shared" ref="I46:I53" si="220">BIN2HEX(I45)</f>
+        <f t="shared" ref="I46" si="222">BIN2HEX(I45)</f>
         <v>84</v>
       </c>
       <c r="J46" s="3" t="str">
-        <f t="shared" ref="J46:J77" si="221">BIN2HEX(J45,2)</f>
+        <f t="shared" ref="J46" si="223">BIN2HEX(J45,2)</f>
         <v>3C</v>
       </c>
       <c r="K46" s="6" t="str">
-        <f t="shared" ref="K46" si="222">I46&amp;J46</f>
+        <f t="shared" ref="K46" si="224">I46&amp;J46</f>
         <v>843C</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="O46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2016,57 +2360,73 @@
         <v>261.63</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47" si="223">TRUNC($E$2/(32*B47))</f>
+        <f t="shared" ref="C47" si="225">TRUNC($E$2/(32*B47))</f>
         <v>298</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" ref="D47" si="224">DEC2HEX(C47)</f>
+        <f t="shared" ref="D47" si="226">DEC2HEX(C47)</f>
         <v>12A</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" ref="E47:E53" si="225">DEC2BIN(MOD(QUOTIENT(C47,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C47,256^0),256),8)</f>
+        <f t="shared" ref="E47" si="227">DEC2BIN(MOD(QUOTIENT(C47,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C47,256^0),256),8)</f>
         <v>0000000100101010</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47" si="226">RIGHT("000000" &amp; E47,10)</f>
+        <f t="shared" ref="F47" si="228">RIGHT("000000" &amp; E47,10)</f>
         <v>0100101010</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" ref="G47" si="227">LEFT(F47,4)</f>
+        <f t="shared" ref="G47" si="229">LEFT(F47,4)</f>
         <v>0100</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ref="H47:H53" si="228">RIGHT(F47,6)</f>
+        <f t="shared" ref="H47" si="230">RIGHT(F47,6)</f>
         <v>101010</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" ref="I47:I53" si="229">"1"&amp;$K$3&amp;G47</f>
+        <f t="shared" ref="I47" si="231">"1"&amp;$K$3&amp;G47</f>
         <v>10000100</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47:J78" si="230">"00"&amp;H47</f>
+        <f t="shared" ref="J47" si="232">"00"&amp;H47</f>
         <v>00101010</v>
       </c>
       <c r="K47" s="6" t="str">
-        <f t="shared" ref="K47:K78" si="231">I48&amp;J48</f>
+        <f t="shared" ref="K47" si="233">I48&amp;J48</f>
         <v>842A</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="I48" s="3" t="str">
-        <f t="shared" ref="I48:I53" si="232">BIN2HEX(I47)</f>
+        <f t="shared" ref="I48" si="234">BIN2HEX(I47)</f>
         <v>84</v>
       </c>
       <c r="J48" s="3" t="str">
-        <f t="shared" ref="J48:J79" si="233">BIN2HEX(J47,2)</f>
+        <f t="shared" ref="J48" si="235">BIN2HEX(J47,2)</f>
         <v>2A</v>
       </c>
       <c r="K48" s="6" t="str">
-        <f t="shared" ref="K48" si="234">I48&amp;J48</f>
+        <f t="shared" ref="K48" si="236">I48&amp;J48</f>
         <v>842A</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="O48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2074,57 +2434,73 @@
         <v>277.18</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49" si="235">TRUNC($E$2/(32*B49))</f>
+        <f t="shared" ref="C49" si="237">TRUNC($E$2/(32*B49))</f>
         <v>281</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" ref="D49" si="236">DEC2HEX(C49)</f>
+        <f t="shared" ref="D49" si="238">DEC2HEX(C49)</f>
         <v>119</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" ref="E49:E53" si="237">DEC2BIN(MOD(QUOTIENT(C49,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C49,256^0),256),8)</f>
+        <f t="shared" ref="E49" si="239">DEC2BIN(MOD(QUOTIENT(C49,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C49,256^0),256),8)</f>
         <v>0000000100011001</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" ref="F49" si="238">RIGHT("000000" &amp; E49,10)</f>
+        <f t="shared" ref="F49" si="240">RIGHT("000000" &amp; E49,10)</f>
         <v>0100011001</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" ref="G49" si="239">LEFT(F49,4)</f>
+        <f t="shared" ref="G49" si="241">LEFT(F49,4)</f>
         <v>0100</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" ref="H49:H53" si="240">RIGHT(F49,6)</f>
+        <f t="shared" ref="H49" si="242">RIGHT(F49,6)</f>
         <v>011001</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" ref="I49:I53" si="241">"1"&amp;$K$3&amp;G49</f>
+        <f t="shared" ref="I49" si="243">"1"&amp;$K$3&amp;G49</f>
         <v>10000100</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ref="J49:J80" si="242">"00"&amp;H49</f>
+        <f t="shared" ref="J49" si="244">"00"&amp;H49</f>
         <v>00011001</v>
       </c>
       <c r="K49" s="6" t="str">
-        <f t="shared" ref="K49:K80" si="243">I50&amp;J50</f>
+        <f t="shared" ref="K49" si="245">I50&amp;J50</f>
         <v>8419</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="I50" s="3" t="str">
-        <f t="shared" ref="I50:I53" si="244">BIN2HEX(I49)</f>
+        <f t="shared" ref="I50" si="246">BIN2HEX(I49)</f>
         <v>84</v>
       </c>
       <c r="J50" s="3" t="str">
-        <f t="shared" ref="J50:J81" si="245">BIN2HEX(J49,2)</f>
+        <f t="shared" ref="J50" si="247">BIN2HEX(J49,2)</f>
         <v>19</v>
       </c>
       <c r="K50" s="6" t="str">
-        <f t="shared" ref="K50" si="246">I50&amp;J50</f>
+        <f t="shared" ref="K50" si="248">I50&amp;J50</f>
         <v>8419</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="O50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2132,57 +2508,73 @@
         <v>293.66000000000003</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C113" si="247">TRUNC($E$2/(32*B51))</f>
+        <f t="shared" ref="C51:C113" si="249">TRUNC($E$2/(32*B51))</f>
         <v>266</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" ref="D51:D113" si="248">DEC2HEX(C51)</f>
+        <f t="shared" ref="D51:D113" si="250">DEC2HEX(C51)</f>
         <v>10A</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ref="E51:E53" si="249">DEC2BIN(MOD(QUOTIENT(C51,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C51,256^0),256),8)</f>
+        <f t="shared" ref="E51" si="251">DEC2BIN(MOD(QUOTIENT(C51,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C51,256^0),256),8)</f>
         <v>0000000100001010</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" ref="F51:F113" si="250">RIGHT("000000" &amp; E51,10)</f>
+        <f t="shared" ref="F51:F113" si="252">RIGHT("000000" &amp; E51,10)</f>
         <v>0100001010</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ref="G51:G113" si="251">LEFT(F51,4)</f>
+        <f t="shared" ref="G51:G113" si="253">LEFT(F51,4)</f>
         <v>0100</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" ref="H51:H53" si="252">RIGHT(F51,6)</f>
+        <f t="shared" ref="H51" si="254">RIGHT(F51,6)</f>
         <v>001010</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" ref="I51:I53" si="253">"1"&amp;$K$3&amp;G51</f>
+        <f t="shared" ref="I51" si="255">"1"&amp;$K$3&amp;G51</f>
         <v>10000100</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ref="J51:J82" si="254">"00"&amp;H51</f>
+        <f t="shared" ref="J51" si="256">"00"&amp;H51</f>
         <v>00001010</v>
       </c>
       <c r="K51" s="6" t="str">
-        <f t="shared" ref="K51:K82" si="255">I52&amp;J52</f>
+        <f t="shared" ref="K51" si="257">I52&amp;J52</f>
         <v>840A</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="I52" s="3" t="str">
-        <f t="shared" ref="I52:I53" si="256">BIN2HEX(I51)</f>
+        <f t="shared" ref="I52" si="258">BIN2HEX(I51)</f>
         <v>84</v>
       </c>
       <c r="J52" s="3" t="str">
-        <f t="shared" ref="J52:J83" si="257">BIN2HEX(J51,2)</f>
+        <f t="shared" ref="J52" si="259">BIN2HEX(J51,2)</f>
         <v>0A</v>
       </c>
       <c r="K52" s="6" t="str">
-        <f t="shared" ref="K52" si="258">I52&amp;J52</f>
+        <f t="shared" ref="K52" si="260">I52&amp;J52</f>
         <v>840A</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2190,57 +2582,73 @@
         <v>311.13</v>
       </c>
       <c r="C53">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>251</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>FB</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ref="E53:E99" si="259">DEC2BIN(MOD(QUOTIENT(C53,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C53,256^0),256),8)</f>
+        <f t="shared" ref="E53" si="261">DEC2BIN(MOD(QUOTIENT(C53,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C53,256^0),256),8)</f>
         <v>0000000011111011</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0011111011</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0011</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" ref="H53:H99" si="260">RIGHT(F53,6)</f>
+        <f t="shared" ref="H53" si="262">RIGHT(F53,6)</f>
         <v>111011</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" ref="I53:I99" si="261">"1"&amp;$K$3&amp;G53</f>
+        <f t="shared" ref="I53" si="263">"1"&amp;$K$3&amp;G53</f>
         <v>10000011</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ref="J53:J84" si="262">"00"&amp;H53</f>
+        <f t="shared" ref="J53" si="264">"00"&amp;H53</f>
         <v>00111011</v>
       </c>
       <c r="K53" s="6" t="str">
-        <f t="shared" ref="K53:K84" si="263">I54&amp;J54</f>
+        <f t="shared" ref="K53" si="265">I54&amp;J54</f>
         <v>833B</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="I54" s="3" t="str">
-        <f t="shared" ref="I54:I99" si="264">BIN2HEX(I53)</f>
+        <f t="shared" ref="I54" si="266">BIN2HEX(I53)</f>
         <v>83</v>
       </c>
       <c r="J54" s="3" t="str">
-        <f t="shared" ref="J54:J85" si="265">BIN2HEX(J53,2)</f>
+        <f t="shared" ref="J54" si="267">BIN2HEX(J53,2)</f>
         <v>3B</v>
       </c>
       <c r="K54" s="6" t="str">
-        <f t="shared" ref="K54" si="266">I54&amp;J54</f>
+        <f t="shared" ref="K54" si="268">I54&amp;J54</f>
         <v>833B</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="O54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -2248,57 +2656,73 @@
         <v>329.63</v>
       </c>
       <c r="C55">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>237</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>ED</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" ref="E55:E99" si="267">DEC2BIN(MOD(QUOTIENT(C55,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C55,256^0),256),8)</f>
+        <f t="shared" ref="E55" si="269">DEC2BIN(MOD(QUOTIENT(C55,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C55,256^0),256),8)</f>
         <v>0000000011101101</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0011101101</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0011</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ref="H55:H99" si="268">RIGHT(F55,6)</f>
+        <f t="shared" ref="H55" si="270">RIGHT(F55,6)</f>
         <v>101101</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" ref="I55:I99" si="269">"1"&amp;$K$3&amp;G55</f>
+        <f t="shared" ref="I55" si="271">"1"&amp;$K$3&amp;G55</f>
         <v>10000011</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ref="J55:J86" si="270">"00"&amp;H55</f>
+        <f t="shared" ref="J55" si="272">"00"&amp;H55</f>
         <v>00101101</v>
       </c>
       <c r="K55" s="6" t="str">
-        <f t="shared" ref="K55:K86" si="271">I56&amp;J56</f>
+        <f t="shared" ref="K55" si="273">I56&amp;J56</f>
         <v>832D</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="I56" s="3" t="str">
-        <f t="shared" ref="I56:I99" si="272">BIN2HEX(I55)</f>
+        <f t="shared" ref="I56" si="274">BIN2HEX(I55)</f>
         <v>83</v>
       </c>
       <c r="J56" s="3" t="str">
-        <f t="shared" ref="J56:J87" si="273">BIN2HEX(J55,2)</f>
+        <f t="shared" ref="J56" si="275">BIN2HEX(J55,2)</f>
         <v>2D</v>
       </c>
       <c r="K56" s="6" t="str">
-        <f t="shared" ref="K56" si="274">I56&amp;J56</f>
+        <f t="shared" ref="K56" si="276">I56&amp;J56</f>
         <v>832D</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="O56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -2306,57 +2730,73 @@
         <v>349.23</v>
       </c>
       <c r="C57">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>223</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>DF</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ref="E57:E99" si="275">DEC2BIN(MOD(QUOTIENT(C57,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C57,256^0),256),8)</f>
+        <f t="shared" ref="E57" si="277">DEC2BIN(MOD(QUOTIENT(C57,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C57,256^0),256),8)</f>
         <v>0000000011011111</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0011011111</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0011</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" ref="H57:H99" si="276">RIGHT(F57,6)</f>
+        <f t="shared" ref="H57" si="278">RIGHT(F57,6)</f>
         <v>011111</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" ref="I57:I99" si="277">"1"&amp;$K$3&amp;G57</f>
+        <f t="shared" ref="I57" si="279">"1"&amp;$K$3&amp;G57</f>
         <v>10000011</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57:J88" si="278">"00"&amp;H57</f>
+        <f t="shared" ref="J57" si="280">"00"&amp;H57</f>
         <v>00011111</v>
       </c>
       <c r="K57" s="6" t="str">
-        <f t="shared" ref="K57:K88" si="279">I58&amp;J58</f>
+        <f t="shared" ref="K57" si="281">I58&amp;J58</f>
         <v>831F</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="I58" s="3" t="str">
-        <f t="shared" ref="I58:I99" si="280">BIN2HEX(I57)</f>
+        <f t="shared" ref="I58" si="282">BIN2HEX(I57)</f>
         <v>83</v>
       </c>
       <c r="J58" s="3" t="str">
-        <f t="shared" ref="J58:J89" si="281">BIN2HEX(J57,2)</f>
+        <f t="shared" ref="J58" si="283">BIN2HEX(J57,2)</f>
         <v>1F</v>
       </c>
       <c r="K58" s="6" t="str">
-        <f t="shared" ref="K58" si="282">I58&amp;J58</f>
+        <f t="shared" ref="K58" si="284">I58&amp;J58</f>
         <v>831F</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2364,57 +2804,73 @@
         <v>369.99</v>
       </c>
       <c r="C59">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>211</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>D3</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" ref="E59:E99" si="283">DEC2BIN(MOD(QUOTIENT(C59,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C59,256^0),256),8)</f>
+        <f t="shared" ref="E59" si="285">DEC2BIN(MOD(QUOTIENT(C59,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C59,256^0),256),8)</f>
         <v>0000000011010011</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0011010011</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0011</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" ref="H59:H99" si="284">RIGHT(F59,6)</f>
+        <f t="shared" ref="H59" si="286">RIGHT(F59,6)</f>
         <v>010011</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" ref="I59:I99" si="285">"1"&amp;$K$3&amp;G59</f>
+        <f t="shared" ref="I59" si="287">"1"&amp;$K$3&amp;G59</f>
         <v>10000011</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59:J90" si="286">"00"&amp;H59</f>
+        <f t="shared" ref="J59" si="288">"00"&amp;H59</f>
         <v>00010011</v>
       </c>
       <c r="K59" s="6" t="str">
-        <f t="shared" ref="K59:K90" si="287">I60&amp;J60</f>
+        <f t="shared" ref="K59" si="289">I60&amp;J60</f>
         <v>8313</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="I60" s="3" t="str">
-        <f t="shared" ref="I60:I99" si="288">BIN2HEX(I59)</f>
+        <f t="shared" ref="I60" si="290">BIN2HEX(I59)</f>
         <v>83</v>
       </c>
       <c r="J60" s="3" t="str">
-        <f t="shared" ref="J60:J91" si="289">BIN2HEX(J59,2)</f>
+        <f t="shared" ref="J60" si="291">BIN2HEX(J59,2)</f>
         <v>13</v>
       </c>
       <c r="K60" s="6" t="str">
-        <f t="shared" ref="K60" si="290">I60&amp;J60</f>
+        <f t="shared" ref="K60" si="292">I60&amp;J60</f>
         <v>8313</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="O60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2422,57 +2878,73 @@
         <v>392</v>
       </c>
       <c r="C61">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>199</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>C7</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" ref="E61:E99" si="291">DEC2BIN(MOD(QUOTIENT(C61,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C61,256^0),256),8)</f>
+        <f t="shared" ref="E61" si="293">DEC2BIN(MOD(QUOTIENT(C61,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C61,256^0),256),8)</f>
         <v>0000000011000111</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0011000111</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0011</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H99" si="292">RIGHT(F61,6)</f>
+        <f t="shared" ref="H61" si="294">RIGHT(F61,6)</f>
         <v>000111</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" ref="I61:I99" si="293">"1"&amp;$K$3&amp;G61</f>
+        <f t="shared" ref="I61" si="295">"1"&amp;$K$3&amp;G61</f>
         <v>10000011</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" ref="J61:J92" si="294">"00"&amp;H61</f>
+        <f t="shared" ref="J61" si="296">"00"&amp;H61</f>
         <v>00000111</v>
       </c>
       <c r="K61" s="6" t="str">
-        <f t="shared" ref="K61:K92" si="295">I62&amp;J62</f>
+        <f t="shared" ref="K61" si="297">I62&amp;J62</f>
         <v>8307</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="I62" s="3" t="str">
-        <f t="shared" ref="I62:I99" si="296">BIN2HEX(I61)</f>
+        <f t="shared" ref="I62" si="298">BIN2HEX(I61)</f>
         <v>83</v>
       </c>
       <c r="J62" s="3" t="str">
-        <f t="shared" ref="J62:J93" si="297">BIN2HEX(J61,2)</f>
+        <f t="shared" ref="J62" si="299">BIN2HEX(J61,2)</f>
         <v>07</v>
       </c>
       <c r="K62" s="6" t="str">
-        <f t="shared" ref="K62" si="298">I62&amp;J62</f>
+        <f t="shared" ref="K62" si="300">I62&amp;J62</f>
         <v>8307</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -2480,57 +2952,73 @@
         <v>415.3</v>
       </c>
       <c r="C63">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>188</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>BC</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63:E99" si="299">DEC2BIN(MOD(QUOTIENT(C63,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C63,256^0),256),8)</f>
+        <f t="shared" ref="E63" si="301">DEC2BIN(MOD(QUOTIENT(C63,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C63,256^0),256),8)</f>
         <v>0000000010111100</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010111100</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ref="H63:H99" si="300">RIGHT(F63,6)</f>
+        <f t="shared" ref="H63" si="302">RIGHT(F63,6)</f>
         <v>111100</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" ref="I63:I99" si="301">"1"&amp;$K$3&amp;G63</f>
+        <f t="shared" ref="I63" si="303">"1"&amp;$K$3&amp;G63</f>
         <v>10000010</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" ref="J63:J94" si="302">"00"&amp;H63</f>
+        <f t="shared" ref="J63" si="304">"00"&amp;H63</f>
         <v>00111100</v>
       </c>
       <c r="K63" s="6" t="str">
-        <f t="shared" ref="K63:K94" si="303">I64&amp;J64</f>
+        <f t="shared" ref="K63" si="305">I64&amp;J64</f>
         <v>823C</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="I64" s="3" t="str">
-        <f t="shared" ref="I64:I99" si="304">BIN2HEX(I63)</f>
+        <f t="shared" ref="I64" si="306">BIN2HEX(I63)</f>
         <v>82</v>
       </c>
       <c r="J64" s="3" t="str">
-        <f t="shared" ref="J64:J95" si="305">BIN2HEX(J63,2)</f>
+        <f t="shared" ref="J64" si="307">BIN2HEX(J63,2)</f>
         <v>3C</v>
       </c>
       <c r="K64" s="6" t="str">
-        <f t="shared" ref="K64" si="306">I64&amp;J64</f>
+        <f t="shared" ref="K64" si="308">I64&amp;J64</f>
         <v>823C</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="O64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -2538,57 +3026,73 @@
         <v>440</v>
       </c>
       <c r="C65">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>177</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>B1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ref="E65:E99" si="307">DEC2BIN(MOD(QUOTIENT(C65,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C65,256^0),256),8)</f>
+        <f t="shared" ref="E65" si="309">DEC2BIN(MOD(QUOTIENT(C65,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C65,256^0),256),8)</f>
         <v>0000000010110001</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010110001</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H99" si="308">RIGHT(F65,6)</f>
+        <f t="shared" ref="H65" si="310">RIGHT(F65,6)</f>
         <v>110001</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I99" si="309">"1"&amp;$K$3&amp;G65</f>
+        <f t="shared" ref="I65" si="311">"1"&amp;$K$3&amp;G65</f>
         <v>10000010</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J96" si="310">"00"&amp;H65</f>
+        <f t="shared" ref="J65" si="312">"00"&amp;H65</f>
         <v>00110001</v>
       </c>
       <c r="K65" s="6" t="str">
-        <f t="shared" ref="K65:K96" si="311">I66&amp;J66</f>
+        <f t="shared" ref="K65" si="313">I66&amp;J66</f>
         <v>8231</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="I66" s="3" t="str">
-        <f t="shared" ref="I66:I99" si="312">BIN2HEX(I65)</f>
+        <f t="shared" ref="I66" si="314">BIN2HEX(I65)</f>
         <v>82</v>
       </c>
       <c r="J66" s="3" t="str">
-        <f t="shared" ref="J66:J97" si="313">BIN2HEX(J65,2)</f>
+        <f t="shared" ref="J66" si="315">BIN2HEX(J65,2)</f>
         <v>31</v>
       </c>
       <c r="K66" s="6" t="str">
-        <f t="shared" ref="K66" si="314">I66&amp;J66</f>
+        <f t="shared" ref="K66" si="316">I66&amp;J66</f>
         <v>8231</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="O66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2596,57 +3100,73 @@
         <v>466.16</v>
       </c>
       <c r="C67">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>167</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>A7</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E99" si="315">DEC2BIN(MOD(QUOTIENT(C67,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C67,256^0),256),8)</f>
+        <f t="shared" ref="E67" si="317">DEC2BIN(MOD(QUOTIENT(C67,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C67,256^0),256),8)</f>
         <v>0000000010100111</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010100111</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H99" si="316">RIGHT(F67,6)</f>
+        <f t="shared" ref="H67" si="318">RIGHT(F67,6)</f>
         <v>100111</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I99" si="317">"1"&amp;$K$3&amp;G67</f>
+        <f t="shared" ref="I67" si="319">"1"&amp;$K$3&amp;G67</f>
         <v>10000010</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J98" si="318">"00"&amp;H67</f>
+        <f t="shared" ref="J67" si="320">"00"&amp;H67</f>
         <v>00100111</v>
       </c>
       <c r="K67" s="6" t="str">
-        <f t="shared" ref="K67:K98" si="319">I68&amp;J68</f>
+        <f t="shared" ref="K67" si="321">I68&amp;J68</f>
         <v>8227</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="I68" s="3" t="str">
-        <f t="shared" ref="I68:I99" si="320">BIN2HEX(I67)</f>
+        <f t="shared" ref="I68" si="322">BIN2HEX(I67)</f>
         <v>82</v>
       </c>
       <c r="J68" s="3" t="str">
-        <f t="shared" ref="J68:J99" si="321">BIN2HEX(J67,2)</f>
+        <f t="shared" ref="J68" si="323">BIN2HEX(J67,2)</f>
         <v>27</v>
       </c>
       <c r="K68" s="6" t="str">
-        <f t="shared" ref="K68" si="322">I68&amp;J68</f>
+        <f t="shared" ref="K68" si="324">I68&amp;J68</f>
         <v>8227</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="O68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2654,57 +3174,73 @@
         <v>493.88</v>
       </c>
       <c r="C69">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>158</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>9E</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E99" si="323">DEC2BIN(MOD(QUOTIENT(C69,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C69,256^0),256),8)</f>
+        <f t="shared" ref="E69" si="325">DEC2BIN(MOD(QUOTIENT(C69,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C69,256^0),256),8)</f>
         <v>0000000010011110</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010011110</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H99" si="324">RIGHT(F69,6)</f>
+        <f t="shared" ref="H69" si="326">RIGHT(F69,6)</f>
         <v>011110</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I99" si="325">"1"&amp;$K$3&amp;G69</f>
+        <f t="shared" ref="I69" si="327">"1"&amp;$K$3&amp;G69</f>
         <v>10000010</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J100" si="326">"00"&amp;H69</f>
+        <f t="shared" ref="J69" si="328">"00"&amp;H69</f>
         <v>00011110</v>
       </c>
       <c r="K69" s="6" t="str">
-        <f t="shared" ref="K69:K100" si="327">I70&amp;J70</f>
+        <f t="shared" ref="K69" si="329">I70&amp;J70</f>
         <v>821E</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="O69">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="I70" s="3" t="str">
-        <f t="shared" ref="I70:I99" si="328">BIN2HEX(I69)</f>
+        <f t="shared" ref="I70" si="330">BIN2HEX(I69)</f>
         <v>82</v>
       </c>
       <c r="J70" s="3" t="str">
-        <f t="shared" ref="J70:J101" si="329">BIN2HEX(J69,2)</f>
+        <f t="shared" ref="J70" si="331">BIN2HEX(J69,2)</f>
         <v>1E</v>
       </c>
       <c r="K70" s="6" t="str">
-        <f t="shared" ref="K70" si="330">I70&amp;J70</f>
+        <f t="shared" ref="K70" si="332">I70&amp;J70</f>
         <v>821E</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="O70" t="str">
+        <f t="shared" ref="O70:O133" si="333">IF(C70&lt;&gt;"",C70,"")</f>
+        <v/>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -2712,57 +3248,73 @@
         <v>523.25</v>
       </c>
       <c r="C71">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>149</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>95</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ref="E71:E99" si="331">DEC2BIN(MOD(QUOTIENT(C71,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C71,256^0),256),8)</f>
+        <f t="shared" ref="E71" si="334">DEC2BIN(MOD(QUOTIENT(C71,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C71,256^0),256),8)</f>
         <v>0000000010010101</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010010101</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ref="H71:H99" si="332">RIGHT(F71,6)</f>
+        <f t="shared" ref="H71" si="335">RIGHT(F71,6)</f>
         <v>010101</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" ref="I71:I99" si="333">"1"&amp;$K$3&amp;G71</f>
+        <f t="shared" ref="I71" si="336">"1"&amp;$K$3&amp;G71</f>
         <v>10000010</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" ref="J71:J102" si="334">"00"&amp;H71</f>
+        <f t="shared" ref="J71" si="337">"00"&amp;H71</f>
         <v>00010101</v>
       </c>
       <c r="K71" s="6" t="str">
-        <f t="shared" ref="K71:K102" si="335">I72&amp;J72</f>
+        <f t="shared" ref="K71" si="338">I72&amp;J72</f>
         <v>8215</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="O71">
+        <f t="shared" si="333"/>
+        <v>149</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="I72" s="3" t="str">
-        <f t="shared" ref="I72:I99" si="336">BIN2HEX(I71)</f>
+        <f t="shared" ref="I72" si="339">BIN2HEX(I71)</f>
         <v>82</v>
       </c>
       <c r="J72" s="3" t="str">
-        <f t="shared" ref="J72:J103" si="337">BIN2HEX(J71,2)</f>
+        <f t="shared" ref="J72" si="340">BIN2HEX(J71,2)</f>
         <v>15</v>
       </c>
       <c r="K72" s="6" t="str">
-        <f t="shared" ref="K72" si="338">I72&amp;J72</f>
+        <f t="shared" ref="K72" si="341">I72&amp;J72</f>
         <v>8215</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="O72" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" ref="P72:P135" si="342">IF(O72&lt;&gt;"",P70+1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -2770,57 +3322,73 @@
         <v>554.37</v>
       </c>
       <c r="C73">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>140</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>8C</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E99" si="339">DEC2BIN(MOD(QUOTIENT(C73,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C73,256^0),256),8)</f>
+        <f t="shared" ref="E73" si="343">DEC2BIN(MOD(QUOTIENT(C73,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C73,256^0),256),8)</f>
         <v>0000000010001100</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010001100</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ref="H73:H99" si="340">RIGHT(F73,6)</f>
+        <f t="shared" ref="H73" si="344">RIGHT(F73,6)</f>
         <v>001100</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I99" si="341">"1"&amp;$K$3&amp;G73</f>
+        <f t="shared" ref="I73" si="345">"1"&amp;$K$3&amp;G73</f>
         <v>10000010</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J104" si="342">"00"&amp;H73</f>
+        <f t="shared" ref="J73" si="346">"00"&amp;H73</f>
         <v>00001100</v>
       </c>
       <c r="K73" s="6" t="str">
-        <f t="shared" ref="K73:K104" si="343">I74&amp;J74</f>
+        <f t="shared" ref="K73" si="347">I74&amp;J74</f>
         <v>820C</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="O73">
+        <f t="shared" si="333"/>
+        <v>140</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="342"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="I74" s="3" t="str">
-        <f t="shared" ref="I74:I99" si="344">BIN2HEX(I73)</f>
+        <f t="shared" ref="I74" si="348">BIN2HEX(I73)</f>
         <v>82</v>
       </c>
       <c r="J74" s="3" t="str">
-        <f t="shared" ref="J74:J105" si="345">BIN2HEX(J73,2)</f>
+        <f t="shared" ref="J74" si="349">BIN2HEX(J73,2)</f>
         <v>0C</v>
       </c>
       <c r="K74" s="6" t="str">
-        <f t="shared" ref="K74" si="346">I74&amp;J74</f>
+        <f t="shared" ref="K74" si="350">I74&amp;J74</f>
         <v>820C</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="O74" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -2828,57 +3396,73 @@
         <v>587.33000000000004</v>
       </c>
       <c r="C75">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>133</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>85</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ref="E75:E99" si="347">DEC2BIN(MOD(QUOTIENT(C75,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C75,256^0),256),8)</f>
+        <f t="shared" ref="E75" si="351">DEC2BIN(MOD(QUOTIENT(C75,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C75,256^0),256),8)</f>
         <v>0000000010000101</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0010000101</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0010</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H99" si="348">RIGHT(F75,6)</f>
+        <f t="shared" ref="H75" si="352">RIGHT(F75,6)</f>
         <v>000101</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75:I99" si="349">"1"&amp;$K$3&amp;G75</f>
+        <f t="shared" ref="I75" si="353">"1"&amp;$K$3&amp;G75</f>
         <v>10000010</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ref="J75:J106" si="350">"00"&amp;H75</f>
+        <f t="shared" ref="J75" si="354">"00"&amp;H75</f>
         <v>00000101</v>
       </c>
       <c r="K75" s="6" t="str">
-        <f t="shared" ref="K75:K106" si="351">I76&amp;J76</f>
+        <f t="shared" ref="K75" si="355">I76&amp;J76</f>
         <v>8205</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="O75">
+        <f t="shared" si="333"/>
+        <v>133</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="342"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="I76" s="3" t="str">
-        <f t="shared" ref="I76:I99" si="352">BIN2HEX(I75)</f>
+        <f t="shared" ref="I76" si="356">BIN2HEX(I75)</f>
         <v>82</v>
       </c>
       <c r="J76" s="3" t="str">
-        <f t="shared" ref="J76:J107" si="353">BIN2HEX(J75,2)</f>
+        <f t="shared" ref="J76" si="357">BIN2HEX(J75,2)</f>
         <v>05</v>
       </c>
       <c r="K76" s="6" t="str">
-        <f t="shared" ref="K76" si="354">I76&amp;J76</f>
+        <f t="shared" ref="K76" si="358">I76&amp;J76</f>
         <v>8205</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="O76" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -2886,57 +3470,73 @@
         <v>622.25</v>
       </c>
       <c r="C77">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>125</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>7D</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" ref="E77:E99" si="355">DEC2BIN(MOD(QUOTIENT(C77,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C77,256^0),256),8)</f>
+        <f t="shared" ref="E77" si="359">DEC2BIN(MOD(QUOTIENT(C77,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C77,256^0),256),8)</f>
         <v>0000000001111101</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001111101</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ref="H77:H99" si="356">RIGHT(F77,6)</f>
+        <f t="shared" ref="H77" si="360">RIGHT(F77,6)</f>
         <v>111101</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I99" si="357">"1"&amp;$K$3&amp;G77</f>
+        <f t="shared" ref="I77" si="361">"1"&amp;$K$3&amp;G77</f>
         <v>10000001</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" ref="J77:J108" si="358">"00"&amp;H77</f>
+        <f t="shared" ref="J77" si="362">"00"&amp;H77</f>
         <v>00111101</v>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" ref="K77:K108" si="359">I78&amp;J78</f>
+        <f t="shared" ref="K77" si="363">I78&amp;J78</f>
         <v>813D</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="O77">
+        <f t="shared" si="333"/>
+        <v>125</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="342"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="I78" s="3" t="str">
-        <f t="shared" ref="I78:I99" si="360">BIN2HEX(I77)</f>
+        <f t="shared" ref="I78" si="364">BIN2HEX(I77)</f>
         <v>81</v>
       </c>
       <c r="J78" s="3" t="str">
-        <f t="shared" ref="J78:J109" si="361">BIN2HEX(J77,2)</f>
+        <f t="shared" ref="J78" si="365">BIN2HEX(J77,2)</f>
         <v>3D</v>
       </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" ref="K78" si="362">I78&amp;J78</f>
+        <f t="shared" ref="K78" si="366">I78&amp;J78</f>
         <v>813D</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="O78" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2944,57 +3544,73 @@
         <v>659.25</v>
       </c>
       <c r="C79">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>118</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>76</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ref="E79:E99" si="363">DEC2BIN(MOD(QUOTIENT(C79,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C79,256^0),256),8)</f>
+        <f t="shared" ref="E79" si="367">DEC2BIN(MOD(QUOTIENT(C79,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C79,256^0),256),8)</f>
         <v>0000000001110110</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001110110</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" ref="H79:H99" si="364">RIGHT(F79,6)</f>
+        <f t="shared" ref="H79" si="368">RIGHT(F79,6)</f>
         <v>110110</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" ref="I79:I99" si="365">"1"&amp;$K$3&amp;G79</f>
+        <f t="shared" ref="I79" si="369">"1"&amp;$K$3&amp;G79</f>
         <v>10000001</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" ref="J79:J110" si="366">"00"&amp;H79</f>
+        <f t="shared" ref="J79" si="370">"00"&amp;H79</f>
         <v>00110110</v>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" ref="K79:K110" si="367">I80&amp;J80</f>
+        <f t="shared" ref="K79" si="371">I80&amp;J80</f>
         <v>8136</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="O79">
+        <f t="shared" si="333"/>
+        <v>118</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="342"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="I80" s="3" t="str">
-        <f t="shared" ref="I80:I99" si="368">BIN2HEX(I79)</f>
+        <f t="shared" ref="I80" si="372">BIN2HEX(I79)</f>
         <v>81</v>
       </c>
       <c r="J80" s="3" t="str">
-        <f t="shared" ref="J80:J111" si="369">BIN2HEX(J79,2)</f>
+        <f t="shared" ref="J80" si="373">BIN2HEX(J79,2)</f>
         <v>36</v>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" ref="K80" si="370">I80&amp;J80</f>
+        <f t="shared" ref="K80" si="374">I80&amp;J80</f>
         <v>8136</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="O80" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3002,57 +3618,73 @@
         <v>698.46</v>
       </c>
       <c r="C81">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>111</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>6F</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" ref="E81:E99" si="371">DEC2BIN(MOD(QUOTIENT(C81,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C81,256^0),256),8)</f>
+        <f t="shared" ref="E81" si="375">DEC2BIN(MOD(QUOTIENT(C81,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C81,256^0),256),8)</f>
         <v>0000000001101111</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001101111</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" ref="H81:H99" si="372">RIGHT(F81,6)</f>
+        <f t="shared" ref="H81" si="376">RIGHT(F81,6)</f>
         <v>101111</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" ref="I81:I99" si="373">"1"&amp;$K$3&amp;G81</f>
+        <f t="shared" ref="I81" si="377">"1"&amp;$K$3&amp;G81</f>
         <v>10000001</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" ref="J81:J112" si="374">"00"&amp;H81</f>
+        <f t="shared" ref="J81" si="378">"00"&amp;H81</f>
         <v>00101111</v>
       </c>
       <c r="K81" s="6" t="str">
-        <f t="shared" ref="K81:K112" si="375">I82&amp;J82</f>
+        <f t="shared" ref="K81" si="379">I82&amp;J82</f>
         <v>812F</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="O81">
+        <f t="shared" si="333"/>
+        <v>111</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="342"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="I82" s="3" t="str">
-        <f t="shared" ref="I82:I99" si="376">BIN2HEX(I81)</f>
+        <f t="shared" ref="I82" si="380">BIN2HEX(I81)</f>
         <v>81</v>
       </c>
       <c r="J82" s="3" t="str">
-        <f t="shared" ref="J82:J113" si="377">BIN2HEX(J81,2)</f>
+        <f t="shared" ref="J82" si="381">BIN2HEX(J81,2)</f>
         <v>2F</v>
       </c>
       <c r="K82" s="6" t="str">
-        <f t="shared" ref="K82" si="378">I82&amp;J82</f>
+        <f t="shared" ref="K82" si="382">I82&amp;J82</f>
         <v>812F</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="O82" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -3060,57 +3692,73 @@
         <v>739.99</v>
       </c>
       <c r="C83">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>105</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>69</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" ref="E83:E99" si="379">DEC2BIN(MOD(QUOTIENT(C83,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C83,256^0),256),8)</f>
+        <f t="shared" ref="E83" si="383">DEC2BIN(MOD(QUOTIENT(C83,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C83,256^0),256),8)</f>
         <v>0000000001101001</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001101001</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" ref="H83:H99" si="380">RIGHT(F83,6)</f>
+        <f t="shared" ref="H83" si="384">RIGHT(F83,6)</f>
         <v>101001</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I99" si="381">"1"&amp;$K$3&amp;G83</f>
+        <f t="shared" ref="I83" si="385">"1"&amp;$K$3&amp;G83</f>
         <v>10000001</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" ref="J83:J114" si="382">"00"&amp;H83</f>
+        <f t="shared" ref="J83" si="386">"00"&amp;H83</f>
         <v>00101001</v>
       </c>
       <c r="K83" s="6" t="str">
-        <f t="shared" ref="K83:K114" si="383">I84&amp;J84</f>
+        <f t="shared" ref="K83" si="387">I84&amp;J84</f>
         <v>8129</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="O83">
+        <f t="shared" si="333"/>
+        <v>105</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="342"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="I84" s="3" t="str">
-        <f t="shared" ref="I84:I99" si="384">BIN2HEX(I83)</f>
+        <f t="shared" ref="I84" si="388">BIN2HEX(I83)</f>
         <v>81</v>
       </c>
       <c r="J84" s="3" t="str">
-        <f t="shared" ref="J84:J115" si="385">BIN2HEX(J83,2)</f>
+        <f t="shared" ref="J84" si="389">BIN2HEX(J83,2)</f>
         <v>29</v>
       </c>
       <c r="K84" s="6" t="str">
-        <f t="shared" ref="K84" si="386">I84&amp;J84</f>
+        <f t="shared" ref="K84" si="390">I84&amp;J84</f>
         <v>8129</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="O84" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -3118,57 +3766,73 @@
         <v>783.99</v>
       </c>
       <c r="C85">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>99</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>63</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" ref="E85:E99" si="387">DEC2BIN(MOD(QUOTIENT(C85,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C85,256^0),256),8)</f>
+        <f t="shared" ref="E85" si="391">DEC2BIN(MOD(QUOTIENT(C85,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C85,256^0),256),8)</f>
         <v>0000000001100011</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001100011</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" ref="H85:H99" si="388">RIGHT(F85,6)</f>
+        <f t="shared" ref="H85" si="392">RIGHT(F85,6)</f>
         <v>100011</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" ref="I85:I99" si="389">"1"&amp;$K$3&amp;G85</f>
+        <f t="shared" ref="I85" si="393">"1"&amp;$K$3&amp;G85</f>
         <v>10000001</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" ref="J85:J116" si="390">"00"&amp;H85</f>
+        <f t="shared" ref="J85" si="394">"00"&amp;H85</f>
         <v>00100011</v>
       </c>
       <c r="K85" s="6" t="str">
-        <f t="shared" ref="K85:K116" si="391">I86&amp;J86</f>
+        <f t="shared" ref="K85" si="395">I86&amp;J86</f>
         <v>8123</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="O85">
+        <f t="shared" si="333"/>
+        <v>99</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="342"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="I86" s="3" t="str">
-        <f t="shared" ref="I86:I99" si="392">BIN2HEX(I85)</f>
+        <f t="shared" ref="I86" si="396">BIN2HEX(I85)</f>
         <v>81</v>
       </c>
       <c r="J86" s="3" t="str">
-        <f t="shared" ref="J86:J117" si="393">BIN2HEX(J85,2)</f>
+        <f t="shared" ref="J86" si="397">BIN2HEX(J85,2)</f>
         <v>23</v>
       </c>
       <c r="K86" s="6" t="str">
-        <f t="shared" ref="K86" si="394">I86&amp;J86</f>
+        <f t="shared" ref="K86" si="398">I86&amp;J86</f>
         <v>8123</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="O86" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -3176,57 +3840,73 @@
         <v>830.61</v>
       </c>
       <c r="C87">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>94</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>5E</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ref="E87:E99" si="395">DEC2BIN(MOD(QUOTIENT(C87,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C87,256^0),256),8)</f>
+        <f t="shared" ref="E87" si="399">DEC2BIN(MOD(QUOTIENT(C87,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C87,256^0),256),8)</f>
         <v>0000000001011110</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001011110</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" ref="H87:H99" si="396">RIGHT(F87,6)</f>
+        <f t="shared" ref="H87" si="400">RIGHT(F87,6)</f>
         <v>011110</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" ref="I87:I99" si="397">"1"&amp;$K$3&amp;G87</f>
+        <f t="shared" ref="I87" si="401">"1"&amp;$K$3&amp;G87</f>
         <v>10000001</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" ref="J87:J118" si="398">"00"&amp;H87</f>
+        <f t="shared" ref="J87" si="402">"00"&amp;H87</f>
         <v>00011110</v>
       </c>
       <c r="K87" s="6" t="str">
-        <f t="shared" ref="K87:K118" si="399">I88&amp;J88</f>
+        <f t="shared" ref="K87" si="403">I88&amp;J88</f>
         <v>811E</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="O87">
+        <f t="shared" si="333"/>
+        <v>94</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="342"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="I88" s="3" t="str">
-        <f t="shared" ref="I88:I99" si="400">BIN2HEX(I87)</f>
+        <f t="shared" ref="I88" si="404">BIN2HEX(I87)</f>
         <v>81</v>
       </c>
       <c r="J88" s="3" t="str">
-        <f t="shared" ref="J88:J119" si="401">BIN2HEX(J87,2)</f>
+        <f t="shared" ref="J88" si="405">BIN2HEX(J87,2)</f>
         <v>1E</v>
       </c>
       <c r="K88" s="6" t="str">
-        <f t="shared" ref="K88" si="402">I88&amp;J88</f>
+        <f t="shared" ref="K88" si="406">I88&amp;J88</f>
         <v>811E</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="O88" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -3234,57 +3914,73 @@
         <v>880</v>
       </c>
       <c r="C89">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>88</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>58</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" ref="E89:E99" si="403">DEC2BIN(MOD(QUOTIENT(C89,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C89,256^0),256),8)</f>
+        <f t="shared" ref="E89" si="407">DEC2BIN(MOD(QUOTIENT(C89,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C89,256^0),256),8)</f>
         <v>0000000001011000</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001011000</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" ref="H89:H99" si="404">RIGHT(F89,6)</f>
+        <f t="shared" ref="H89" si="408">RIGHT(F89,6)</f>
         <v>011000</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" ref="I89:I99" si="405">"1"&amp;$K$3&amp;G89</f>
+        <f t="shared" ref="I89" si="409">"1"&amp;$K$3&amp;G89</f>
         <v>10000001</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" ref="J89:J120" si="406">"00"&amp;H89</f>
+        <f t="shared" ref="J89" si="410">"00"&amp;H89</f>
         <v>00011000</v>
       </c>
       <c r="K89" s="6" t="str">
-        <f t="shared" ref="K89:K120" si="407">I90&amp;J90</f>
+        <f t="shared" ref="K89" si="411">I90&amp;J90</f>
         <v>8118</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="O89">
+        <f t="shared" si="333"/>
+        <v>88</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="342"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="I90" s="3" t="str">
-        <f t="shared" ref="I90:I99" si="408">BIN2HEX(I89)</f>
+        <f t="shared" ref="I90" si="412">BIN2HEX(I89)</f>
         <v>81</v>
       </c>
       <c r="J90" s="3" t="str">
-        <f t="shared" ref="J90:J121" si="409">BIN2HEX(J89,2)</f>
+        <f t="shared" ref="J90" si="413">BIN2HEX(J89,2)</f>
         <v>18</v>
       </c>
       <c r="K90" s="6" t="str">
-        <f t="shared" ref="K90" si="410">I90&amp;J90</f>
+        <f t="shared" ref="K90" si="414">I90&amp;J90</f>
         <v>8118</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="O90" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -3292,57 +3988,73 @@
         <v>932.33</v>
       </c>
       <c r="C91">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>83</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>53</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" ref="E91:E99" si="411">DEC2BIN(MOD(QUOTIENT(C91,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C91,256^0),256),8)</f>
+        <f t="shared" ref="E91" si="415">DEC2BIN(MOD(QUOTIENT(C91,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C91,256^0),256),8)</f>
         <v>0000000001010011</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001010011</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" ref="H91:H99" si="412">RIGHT(F91,6)</f>
+        <f t="shared" ref="H91" si="416">RIGHT(F91,6)</f>
         <v>010011</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" ref="I91:I99" si="413">"1"&amp;$K$3&amp;G91</f>
+        <f t="shared" ref="I91" si="417">"1"&amp;$K$3&amp;G91</f>
         <v>10000001</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" ref="J91:J122" si="414">"00"&amp;H91</f>
+        <f t="shared" ref="J91" si="418">"00"&amp;H91</f>
         <v>00010011</v>
       </c>
       <c r="K91" s="6" t="str">
-        <f t="shared" ref="K91:K122" si="415">I92&amp;J92</f>
+        <f t="shared" ref="K91" si="419">I92&amp;J92</f>
         <v>8113</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="O91">
+        <f t="shared" si="333"/>
+        <v>83</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="342"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="I92" s="3" t="str">
-        <f t="shared" ref="I92:I99" si="416">BIN2HEX(I91)</f>
+        <f t="shared" ref="I92" si="420">BIN2HEX(I91)</f>
         <v>81</v>
       </c>
       <c r="J92" s="3" t="str">
-        <f t="shared" ref="J92:J123" si="417">BIN2HEX(J91,2)</f>
+        <f t="shared" ref="J92" si="421">BIN2HEX(J91,2)</f>
         <v>13</v>
       </c>
       <c r="K92" s="6" t="str">
-        <f t="shared" ref="K92" si="418">I92&amp;J92</f>
+        <f t="shared" ref="K92" si="422">I92&amp;J92</f>
         <v>8113</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="O92" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3350,57 +4062,73 @@
         <v>987.77</v>
       </c>
       <c r="C93">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>79</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>4F</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" ref="E93:E99" si="419">DEC2BIN(MOD(QUOTIENT(C93,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C93,256^0),256),8)</f>
+        <f t="shared" ref="E93" si="423">DEC2BIN(MOD(QUOTIENT(C93,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C93,256^0),256),8)</f>
         <v>0000000001001111</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001001111</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" ref="H93:H99" si="420">RIGHT(F93,6)</f>
+        <f t="shared" ref="H93" si="424">RIGHT(F93,6)</f>
         <v>001111</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" ref="I93:I99" si="421">"1"&amp;$K$3&amp;G93</f>
+        <f t="shared" ref="I93" si="425">"1"&amp;$K$3&amp;G93</f>
         <v>10000001</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" ref="J93:J124" si="422">"00"&amp;H93</f>
+        <f t="shared" ref="J93" si="426">"00"&amp;H93</f>
         <v>00001111</v>
       </c>
       <c r="K93" s="6" t="str">
-        <f t="shared" ref="K93:K124" si="423">I94&amp;J94</f>
+        <f t="shared" ref="K93" si="427">I94&amp;J94</f>
         <v>810F</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="O93">
+        <f t="shared" si="333"/>
+        <v>79</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="342"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="I94" s="3" t="str">
-        <f t="shared" ref="I94:I99" si="424">BIN2HEX(I93)</f>
+        <f t="shared" ref="I94" si="428">BIN2HEX(I93)</f>
         <v>81</v>
       </c>
       <c r="J94" s="3" t="str">
-        <f t="shared" ref="J94:J125" si="425">BIN2HEX(J93,2)</f>
+        <f t="shared" ref="J94" si="429">BIN2HEX(J93,2)</f>
         <v>0F</v>
       </c>
       <c r="K94" s="6" t="str">
-        <f t="shared" ref="K94" si="426">I94&amp;J94</f>
+        <f t="shared" ref="K94" si="430">I94&amp;J94</f>
         <v>810F</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="O94" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -3408,57 +4136,73 @@
         <v>1046.5</v>
       </c>
       <c r="C95">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>74</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>4A</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ref="E95:E99" si="427">DEC2BIN(MOD(QUOTIENT(C95,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C95,256^0),256),8)</f>
+        <f t="shared" ref="E95" si="431">DEC2BIN(MOD(QUOTIENT(C95,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C95,256^0),256),8)</f>
         <v>0000000001001010</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001001010</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" ref="H95:H99" si="428">RIGHT(F95,6)</f>
+        <f t="shared" ref="H95" si="432">RIGHT(F95,6)</f>
         <v>001010</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" ref="I95:I99" si="429">"1"&amp;$K$3&amp;G95</f>
+        <f t="shared" ref="I95" si="433">"1"&amp;$K$3&amp;G95</f>
         <v>10000001</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" ref="J95:J126" si="430">"00"&amp;H95</f>
+        <f t="shared" ref="J95" si="434">"00"&amp;H95</f>
         <v>00001010</v>
       </c>
       <c r="K95" s="6" t="str">
-        <f t="shared" ref="K95:K126" si="431">I96&amp;J96</f>
+        <f t="shared" ref="K95" si="435">I96&amp;J96</f>
         <v>810A</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="O95">
+        <f t="shared" si="333"/>
+        <v>74</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="342"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="I96" s="3" t="str">
-        <f t="shared" ref="I96:I99" si="432">BIN2HEX(I95)</f>
+        <f t="shared" ref="I96" si="436">BIN2HEX(I95)</f>
         <v>81</v>
       </c>
       <c r="J96" s="3" t="str">
-        <f t="shared" ref="J96:J127" si="433">BIN2HEX(J95,2)</f>
+        <f t="shared" ref="J96" si="437">BIN2HEX(J95,2)</f>
         <v>0A</v>
       </c>
       <c r="K96" s="6" t="str">
-        <f t="shared" ref="K96" si="434">I96&amp;J96</f>
+        <f t="shared" ref="K96" si="438">I96&amp;J96</f>
         <v>810A</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="O96" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -3466,57 +4210,73 @@
         <v>1108.73</v>
       </c>
       <c r="C97">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>70</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>46</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" ref="E97:E99" si="435">DEC2BIN(MOD(QUOTIENT(C97,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C97,256^0),256),8)</f>
+        <f t="shared" ref="E97" si="439">DEC2BIN(MOD(QUOTIENT(C97,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C97,256^0),256),8)</f>
         <v>0000000001000110</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001000110</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" ref="H97:H99" si="436">RIGHT(F97,6)</f>
+        <f t="shared" ref="H97" si="440">RIGHT(F97,6)</f>
         <v>000110</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" ref="I97:I99" si="437">"1"&amp;$K$3&amp;G97</f>
+        <f t="shared" ref="I97" si="441">"1"&amp;$K$3&amp;G97</f>
         <v>10000001</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" ref="J97:J128" si="438">"00"&amp;H97</f>
+        <f t="shared" ref="J97" si="442">"00"&amp;H97</f>
         <v>00000110</v>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" ref="K97:K128" si="439">I98&amp;J98</f>
+        <f t="shared" ref="K97" si="443">I98&amp;J98</f>
         <v>8106</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="O97">
+        <f t="shared" si="333"/>
+        <v>70</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="342"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="I98" s="3" t="str">
-        <f t="shared" ref="I98:I99" si="440">BIN2HEX(I97)</f>
+        <f t="shared" ref="I98" si="444">BIN2HEX(I97)</f>
         <v>81</v>
       </c>
       <c r="J98" s="3" t="str">
-        <f t="shared" ref="J98:J129" si="441">BIN2HEX(J97,2)</f>
+        <f t="shared" ref="J98" si="445">BIN2HEX(J97,2)</f>
         <v>06</v>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" ref="K98" si="442">I98&amp;J98</f>
+        <f t="shared" ref="K98" si="446">I98&amp;J98</f>
         <v>8106</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="O98" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -3524,57 +4284,73 @@
         <v>1174.6600000000001</v>
       </c>
       <c r="C99">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>66</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>42</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ref="E99:E119" si="443">DEC2BIN(MOD(QUOTIENT(C99,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C99,256^0),256),8)</f>
+        <f t="shared" ref="E99" si="447">DEC2BIN(MOD(QUOTIENT(C99,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C99,256^0),256),8)</f>
         <v>0000000001000010</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0001000010</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0001</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ref="H99:H119" si="444">RIGHT(F99,6)</f>
+        <f t="shared" ref="H99" si="448">RIGHT(F99,6)</f>
         <v>000010</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" ref="I99:I119" si="445">"1"&amp;$K$3&amp;G99</f>
+        <f t="shared" ref="I99" si="449">"1"&amp;$K$3&amp;G99</f>
         <v>10000001</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" ref="J99:J130" si="446">"00"&amp;H99</f>
+        <f t="shared" ref="J99" si="450">"00"&amp;H99</f>
         <v>00000010</v>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" ref="K99:K130" si="447">I100&amp;J100</f>
+        <f t="shared" ref="K99" si="451">I100&amp;J100</f>
         <v>8102</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="O99">
+        <f t="shared" si="333"/>
+        <v>66</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="342"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="I100" s="3" t="str">
-        <f t="shared" ref="I100:I119" si="448">BIN2HEX(I99)</f>
+        <f t="shared" ref="I100" si="452">BIN2HEX(I99)</f>
         <v>81</v>
       </c>
       <c r="J100" s="3" t="str">
-        <f t="shared" ref="J100:J131" si="449">BIN2HEX(J99,2)</f>
+        <f t="shared" ref="J100" si="453">BIN2HEX(J99,2)</f>
         <v>02</v>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" ref="K100" si="450">I100&amp;J100</f>
+        <f t="shared" ref="K100" si="454">I100&amp;J100</f>
         <v>8102</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="O100" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -3582,57 +4358,73 @@
         <v>1244.51</v>
       </c>
       <c r="C101">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>62</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>3E</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" ref="E101:E119" si="451">DEC2BIN(MOD(QUOTIENT(C101,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C101,256^0),256),8)</f>
+        <f t="shared" ref="E101" si="455">DEC2BIN(MOD(QUOTIENT(C101,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C101,256^0),256),8)</f>
         <v>0000000000111110</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000111110</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" ref="H101:H119" si="452">RIGHT(F101,6)</f>
+        <f t="shared" ref="H101" si="456">RIGHT(F101,6)</f>
         <v>111110</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" ref="I101:I119" si="453">"1"&amp;$K$3&amp;G101</f>
+        <f t="shared" ref="I101" si="457">"1"&amp;$K$3&amp;G101</f>
         <v>10000000</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" ref="J101:J132" si="454">"00"&amp;H101</f>
+        <f t="shared" ref="J101" si="458">"00"&amp;H101</f>
         <v>00111110</v>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" ref="K101:K132" si="455">I102&amp;J102</f>
+        <f t="shared" ref="K101" si="459">I102&amp;J102</f>
         <v>803E</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="O101">
+        <f t="shared" si="333"/>
+        <v>62</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="342"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="I102" s="3" t="str">
-        <f t="shared" ref="I102:I119" si="456">BIN2HEX(I101)</f>
+        <f t="shared" ref="I102" si="460">BIN2HEX(I101)</f>
         <v>80</v>
       </c>
       <c r="J102" s="3" t="str">
-        <f t="shared" ref="J102:J133" si="457">BIN2HEX(J101,2)</f>
+        <f t="shared" ref="J102" si="461">BIN2HEX(J101,2)</f>
         <v>3E</v>
       </c>
       <c r="K102" s="6" t="str">
-        <f t="shared" ref="K102" si="458">I102&amp;J102</f>
+        <f t="shared" ref="K102" si="462">I102&amp;J102</f>
         <v>803E</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="O102" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -3640,57 +4432,73 @@
         <v>1318.51</v>
       </c>
       <c r="C103">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>59</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>3B</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" ref="E103:E119" si="459">DEC2BIN(MOD(QUOTIENT(C103,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C103,256^0),256),8)</f>
+        <f t="shared" ref="E103" si="463">DEC2BIN(MOD(QUOTIENT(C103,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C103,256^0),256),8)</f>
         <v>0000000000111011</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000111011</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" ref="H103:H119" si="460">RIGHT(F103,6)</f>
+        <f t="shared" ref="H103" si="464">RIGHT(F103,6)</f>
         <v>111011</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" ref="I103:I119" si="461">"1"&amp;$K$3&amp;G103</f>
+        <f t="shared" ref="I103" si="465">"1"&amp;$K$3&amp;G103</f>
         <v>10000000</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" ref="J103:J134" si="462">"00"&amp;H103</f>
+        <f t="shared" ref="J103" si="466">"00"&amp;H103</f>
         <v>00111011</v>
       </c>
       <c r="K103" s="6" t="str">
-        <f t="shared" ref="K103:K134" si="463">I104&amp;J104</f>
+        <f t="shared" ref="K103" si="467">I104&amp;J104</f>
         <v>803B</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="O103">
+        <f t="shared" si="333"/>
+        <v>59</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="342"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="I104" s="3" t="str">
-        <f t="shared" ref="I104:I119" si="464">BIN2HEX(I103)</f>
+        <f t="shared" ref="I104" si="468">BIN2HEX(I103)</f>
         <v>80</v>
       </c>
       <c r="J104" s="3" t="str">
-        <f t="shared" ref="J104:J135" si="465">BIN2HEX(J103,2)</f>
+        <f t="shared" ref="J104" si="469">BIN2HEX(J103,2)</f>
         <v>3B</v>
       </c>
       <c r="K104" s="6" t="str">
-        <f t="shared" ref="K104" si="466">I104&amp;J104</f>
+        <f t="shared" ref="K104" si="470">I104&amp;J104</f>
         <v>803B</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="O104" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -3698,57 +4506,73 @@
         <v>1396.91</v>
       </c>
       <c r="C105">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>55</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>37</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" ref="E105:E119" si="467">DEC2BIN(MOD(QUOTIENT(C105,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C105,256^0),256),8)</f>
+        <f t="shared" ref="E105" si="471">DEC2BIN(MOD(QUOTIENT(C105,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C105,256^0),256),8)</f>
         <v>0000000000110111</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000110111</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" ref="H105:H119" si="468">RIGHT(F105,6)</f>
+        <f t="shared" ref="H105" si="472">RIGHT(F105,6)</f>
         <v>110111</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" ref="I105:I119" si="469">"1"&amp;$K$3&amp;G105</f>
+        <f t="shared" ref="I105" si="473">"1"&amp;$K$3&amp;G105</f>
         <v>10000000</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" ref="J105:J136" si="470">"00"&amp;H105</f>
+        <f t="shared" ref="J105" si="474">"00"&amp;H105</f>
         <v>00110111</v>
       </c>
       <c r="K105" s="6" t="str">
-        <f t="shared" ref="K105:K136" si="471">I106&amp;J106</f>
+        <f t="shared" ref="K105" si="475">I106&amp;J106</f>
         <v>8037</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="O105">
+        <f t="shared" si="333"/>
+        <v>55</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="342"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="I106" s="3" t="str">
-        <f t="shared" ref="I106:I119" si="472">BIN2HEX(I105)</f>
+        <f t="shared" ref="I106" si="476">BIN2HEX(I105)</f>
         <v>80</v>
       </c>
       <c r="J106" s="3" t="str">
-        <f t="shared" ref="J106:J137" si="473">BIN2HEX(J105,2)</f>
+        <f t="shared" ref="J106" si="477">BIN2HEX(J105,2)</f>
         <v>37</v>
       </c>
       <c r="K106" s="6" t="str">
-        <f t="shared" ref="K106" si="474">I106&amp;J106</f>
+        <f t="shared" ref="K106" si="478">I106&amp;J106</f>
         <v>8037</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="O106" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -3756,57 +4580,73 @@
         <v>1479.98</v>
       </c>
       <c r="C107">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>52</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>34</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" ref="E107:E119" si="475">DEC2BIN(MOD(QUOTIENT(C107,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C107,256^0),256),8)</f>
+        <f t="shared" ref="E107" si="479">DEC2BIN(MOD(QUOTIENT(C107,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C107,256^0),256),8)</f>
         <v>0000000000110100</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000110100</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" ref="H107:H119" si="476">RIGHT(F107,6)</f>
+        <f t="shared" ref="H107" si="480">RIGHT(F107,6)</f>
         <v>110100</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" ref="I107:I119" si="477">"1"&amp;$K$3&amp;G107</f>
+        <f t="shared" ref="I107" si="481">"1"&amp;$K$3&amp;G107</f>
         <v>10000000</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" ref="J107:J138" si="478">"00"&amp;H107</f>
+        <f t="shared" ref="J107" si="482">"00"&amp;H107</f>
         <v>00110100</v>
       </c>
       <c r="K107" s="6" t="str">
-        <f t="shared" ref="K107:K138" si="479">I108&amp;J108</f>
+        <f t="shared" ref="K107" si="483">I108&amp;J108</f>
         <v>8034</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="O107">
+        <f t="shared" si="333"/>
+        <v>52</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="342"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="I108" s="3" t="str">
-        <f t="shared" ref="I108:I119" si="480">BIN2HEX(I107)</f>
+        <f t="shared" ref="I108" si="484">BIN2HEX(I107)</f>
         <v>80</v>
       </c>
       <c r="J108" s="3" t="str">
-        <f t="shared" ref="J108:J139" si="481">BIN2HEX(J107,2)</f>
+        <f t="shared" ref="J108" si="485">BIN2HEX(J107,2)</f>
         <v>34</v>
       </c>
       <c r="K108" s="6" t="str">
-        <f t="shared" ref="K108" si="482">I108&amp;J108</f>
+        <f t="shared" ref="K108" si="486">I108&amp;J108</f>
         <v>8034</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="O108" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -3814,57 +4654,73 @@
         <v>1567.98</v>
       </c>
       <c r="C109">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>49</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>31</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" ref="E109:E119" si="483">DEC2BIN(MOD(QUOTIENT(C109,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C109,256^0),256),8)</f>
+        <f t="shared" ref="E109" si="487">DEC2BIN(MOD(QUOTIENT(C109,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C109,256^0),256),8)</f>
         <v>0000000000110001</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000110001</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" ref="H109:H119" si="484">RIGHT(F109,6)</f>
+        <f t="shared" ref="H109" si="488">RIGHT(F109,6)</f>
         <v>110001</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" ref="I109:I119" si="485">"1"&amp;$K$3&amp;G109</f>
+        <f t="shared" ref="I109" si="489">"1"&amp;$K$3&amp;G109</f>
         <v>10000000</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" ref="J109:J140" si="486">"00"&amp;H109</f>
+        <f t="shared" ref="J109" si="490">"00"&amp;H109</f>
         <v>00110001</v>
       </c>
       <c r="K109" s="6" t="str">
-        <f t="shared" ref="K109:K140" si="487">I110&amp;J110</f>
+        <f t="shared" ref="K109" si="491">I110&amp;J110</f>
         <v>8031</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="O109">
+        <f t="shared" si="333"/>
+        <v>49</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="342"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="I110" s="3" t="str">
-        <f t="shared" ref="I110:I119" si="488">BIN2HEX(I109)</f>
+        <f t="shared" ref="I110" si="492">BIN2HEX(I109)</f>
         <v>80</v>
       </c>
       <c r="J110" s="3" t="str">
-        <f t="shared" ref="J110:J141" si="489">BIN2HEX(J109,2)</f>
+        <f t="shared" ref="J110" si="493">BIN2HEX(J109,2)</f>
         <v>31</v>
       </c>
       <c r="K110" s="6" t="str">
-        <f t="shared" ref="K110" si="490">I110&amp;J110</f>
+        <f t="shared" ref="K110" si="494">I110&amp;J110</f>
         <v>8031</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="O110" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>64</v>
       </c>
@@ -3872,57 +4728,73 @@
         <v>1661.22</v>
       </c>
       <c r="C111">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>47</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>2F</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" ref="E111:E119" si="491">DEC2BIN(MOD(QUOTIENT(C111,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C111,256^0),256),8)</f>
+        <f t="shared" ref="E111" si="495">DEC2BIN(MOD(QUOTIENT(C111,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C111,256^0),256),8)</f>
         <v>0000000000101111</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000101111</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" ref="H111:H119" si="492">RIGHT(F111,6)</f>
+        <f t="shared" ref="H111" si="496">RIGHT(F111,6)</f>
         <v>101111</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" ref="I111:I119" si="493">"1"&amp;$K$3&amp;G111</f>
+        <f t="shared" ref="I111" si="497">"1"&amp;$K$3&amp;G111</f>
         <v>10000000</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" ref="J111:J142" si="494">"00"&amp;H111</f>
+        <f t="shared" ref="J111" si="498">"00"&amp;H111</f>
         <v>00101111</v>
       </c>
       <c r="K111" s="6" t="str">
-        <f t="shared" ref="K111:K142" si="495">I112&amp;J112</f>
+        <f t="shared" ref="K111" si="499">I112&amp;J112</f>
         <v>802F</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="O111">
+        <f t="shared" si="333"/>
+        <v>47</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="342"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="I112" s="3" t="str">
-        <f t="shared" ref="I112:I119" si="496">BIN2HEX(I111)</f>
+        <f t="shared" ref="I112" si="500">BIN2HEX(I111)</f>
         <v>80</v>
       </c>
       <c r="J112" s="3" t="str">
-        <f t="shared" ref="J112:J143" si="497">BIN2HEX(J111,2)</f>
+        <f t="shared" ref="J112" si="501">BIN2HEX(J111,2)</f>
         <v>2F</v>
       </c>
       <c r="K112" s="6" t="str">
-        <f t="shared" ref="K112" si="498">I112&amp;J112</f>
+        <f t="shared" ref="K112" si="502">I112&amp;J112</f>
         <v>802F</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="O112" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -3930,57 +4802,73 @@
         <v>1760</v>
       </c>
       <c r="C113">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>44</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="250"/>
         <v>2C</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" ref="E113:E119" si="499">DEC2BIN(MOD(QUOTIENT(C113,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C113,256^0),256),8)</f>
+        <f t="shared" ref="E113" si="503">DEC2BIN(MOD(QUOTIENT(C113,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C113,256^0),256),8)</f>
         <v>0000000000101100</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0000101100</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0000</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" ref="H113:H119" si="500">RIGHT(F113,6)</f>
+        <f t="shared" ref="H113" si="504">RIGHT(F113,6)</f>
         <v>101100</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" ref="I113:I119" si="501">"1"&amp;$K$3&amp;G113</f>
+        <f t="shared" ref="I113" si="505">"1"&amp;$K$3&amp;G113</f>
         <v>10000000</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" ref="J113:J144" si="502">"00"&amp;H113</f>
+        <f t="shared" ref="J113" si="506">"00"&amp;H113</f>
         <v>00101100</v>
       </c>
       <c r="K113" s="6" t="str">
-        <f t="shared" ref="K113:K144" si="503">I114&amp;J114</f>
+        <f t="shared" ref="K113" si="507">I114&amp;J114</f>
         <v>802C</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="O113">
+        <f t="shared" si="333"/>
+        <v>44</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="342"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="I114" s="3" t="str">
-        <f t="shared" ref="I114:I119" si="504">BIN2HEX(I113)</f>
+        <f t="shared" ref="I114" si="508">BIN2HEX(I113)</f>
         <v>80</v>
       </c>
       <c r="J114" s="3" t="str">
-        <f t="shared" ref="J114:J145" si="505">BIN2HEX(J113,2)</f>
+        <f t="shared" ref="J114" si="509">BIN2HEX(J113,2)</f>
         <v>2C</v>
       </c>
       <c r="K114" s="6" t="str">
-        <f t="shared" ref="K114" si="506">I114&amp;J114</f>
+        <f t="shared" ref="K114" si="510">I114&amp;J114</f>
         <v>802C</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="O114" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -3988,57 +4876,73 @@
         <v>1864.66</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C177" si="507">TRUNC($E$2/(32*B115))</f>
+        <f t="shared" ref="C115:C165" si="511">TRUNC($E$2/(32*B115))</f>
         <v>41</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" ref="D115:D177" si="508">DEC2HEX(C115)</f>
+        <f t="shared" ref="D115:D165" si="512">DEC2HEX(C115)</f>
         <v>29</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" ref="E115:E119" si="509">DEC2BIN(MOD(QUOTIENT(C115,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C115,256^0),256),8)</f>
+        <f t="shared" ref="E115" si="513">DEC2BIN(MOD(QUOTIENT(C115,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C115,256^0),256),8)</f>
         <v>0000000000101001</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" ref="F115:F177" si="510">RIGHT("000000" &amp; E115,10)</f>
+        <f t="shared" ref="F115:F165" si="514">RIGHT("000000" &amp; E115,10)</f>
         <v>0000101001</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" ref="G115:G177" si="511">LEFT(F115,4)</f>
+        <f t="shared" ref="G115:G165" si="515">LEFT(F115,4)</f>
         <v>0000</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" ref="H115:H119" si="512">RIGHT(F115,6)</f>
+        <f t="shared" ref="H115" si="516">RIGHT(F115,6)</f>
         <v>101001</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" ref="I115:I119" si="513">"1"&amp;$K$3&amp;G115</f>
+        <f t="shared" ref="I115" si="517">"1"&amp;$K$3&amp;G115</f>
         <v>10000000</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" ref="J115:J146" si="514">"00"&amp;H115</f>
+        <f t="shared" ref="J115" si="518">"00"&amp;H115</f>
         <v>00101001</v>
       </c>
       <c r="K115" s="6" t="str">
-        <f t="shared" ref="K115:K146" si="515">I116&amp;J116</f>
+        <f t="shared" ref="K115" si="519">I116&amp;J116</f>
         <v>8029</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="O115">
+        <f t="shared" si="333"/>
+        <v>41</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="342"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="I116" s="3" t="str">
-        <f t="shared" ref="I116:I119" si="516">BIN2HEX(I115)</f>
+        <f t="shared" ref="I116" si="520">BIN2HEX(I115)</f>
         <v>80</v>
       </c>
       <c r="J116" s="3" t="str">
-        <f t="shared" ref="J116:J147" si="517">BIN2HEX(J115,2)</f>
+        <f t="shared" ref="J116" si="521">BIN2HEX(J115,2)</f>
         <v>29</v>
       </c>
       <c r="K116" s="6" t="str">
-        <f t="shared" ref="K116" si="518">I116&amp;J116</f>
+        <f t="shared" ref="K116" si="522">I116&amp;J116</f>
         <v>8029</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="O116" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>67</v>
       </c>
@@ -4046,57 +4950,73 @@
         <v>1975.53</v>
       </c>
       <c r="C117">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>39</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>27</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" ref="E117:E119" si="519">DEC2BIN(MOD(QUOTIENT(C117,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C117,256^0),256),8)</f>
+        <f t="shared" ref="E117" si="523">DEC2BIN(MOD(QUOTIENT(C117,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C117,256^0),256),8)</f>
         <v>0000000000100111</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000100111</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" ref="H117:H119" si="520">RIGHT(F117,6)</f>
+        <f t="shared" ref="H117" si="524">RIGHT(F117,6)</f>
         <v>100111</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" ref="I117:I119" si="521">"1"&amp;$K$3&amp;G117</f>
+        <f t="shared" ref="I117" si="525">"1"&amp;$K$3&amp;G117</f>
         <v>10000000</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" ref="J117:J148" si="522">"00"&amp;H117</f>
+        <f t="shared" ref="J117" si="526">"00"&amp;H117</f>
         <v>00100111</v>
       </c>
       <c r="K117" s="6" t="str">
-        <f t="shared" ref="K117:K148" si="523">I118&amp;J118</f>
+        <f t="shared" ref="K117" si="527">I118&amp;J118</f>
         <v>8027</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="O117">
+        <f t="shared" si="333"/>
+        <v>39</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="342"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="I118" s="3" t="str">
-        <f t="shared" ref="I118:I119" si="524">BIN2HEX(I117)</f>
+        <f t="shared" ref="I118" si="528">BIN2HEX(I117)</f>
         <v>80</v>
       </c>
       <c r="J118" s="3" t="str">
-        <f t="shared" ref="J118:J149" si="525">BIN2HEX(J117,2)</f>
+        <f t="shared" ref="J118" si="529">BIN2HEX(J117,2)</f>
         <v>27</v>
       </c>
       <c r="K118" s="6" t="str">
-        <f t="shared" ref="K118" si="526">I118&amp;J118</f>
+        <f t="shared" ref="K118" si="530">I118&amp;J118</f>
         <v>8027</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="O118" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>68</v>
       </c>
@@ -4104,57 +5024,73 @@
         <v>2093</v>
       </c>
       <c r="C119">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>37</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>25</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" ref="E119:E182" si="527">DEC2BIN(MOD(QUOTIENT(C119,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C119,256^0),256),8)</f>
+        <f t="shared" ref="E119" si="531">DEC2BIN(MOD(QUOTIENT(C119,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C119,256^0),256),8)</f>
         <v>0000000000100101</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000100101</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" ref="H119:H182" si="528">RIGHT(F119,6)</f>
+        <f t="shared" ref="H119" si="532">RIGHT(F119,6)</f>
         <v>100101</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" ref="I119:I182" si="529">"1"&amp;$K$3&amp;G119</f>
+        <f t="shared" ref="I119" si="533">"1"&amp;$K$3&amp;G119</f>
         <v>10000000</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" ref="J119:J166" si="530">"00"&amp;H119</f>
+        <f t="shared" ref="J119" si="534">"00"&amp;H119</f>
         <v>00100101</v>
       </c>
       <c r="K119" s="6" t="str">
-        <f t="shared" ref="K119:K166" si="531">I120&amp;J120</f>
+        <f t="shared" ref="K119" si="535">I120&amp;J120</f>
         <v>8025</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="O119">
+        <f t="shared" si="333"/>
+        <v>37</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="342"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="I120" s="3" t="str">
-        <f t="shared" ref="I120:I183" si="532">BIN2HEX(I119)</f>
+        <f t="shared" ref="I120" si="536">BIN2HEX(I119)</f>
         <v>80</v>
       </c>
       <c r="J120" s="3" t="str">
-        <f t="shared" ref="J120:J166" si="533">BIN2HEX(J119,2)</f>
+        <f t="shared" ref="J120" si="537">BIN2HEX(J119,2)</f>
         <v>25</v>
       </c>
       <c r="K120" s="6" t="str">
-        <f t="shared" ref="K120" si="534">I120&amp;J120</f>
+        <f t="shared" ref="K120" si="538">I120&amp;J120</f>
         <v>8025</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="O120" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>69</v>
       </c>
@@ -4162,57 +5098,73 @@
         <v>2217.46</v>
       </c>
       <c r="C121">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>35</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>23</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" ref="E121:E184" si="535">DEC2BIN(MOD(QUOTIENT(C121,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C121,256^0),256),8)</f>
+        <f t="shared" ref="E121" si="539">DEC2BIN(MOD(QUOTIENT(C121,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C121,256^0),256),8)</f>
         <v>0000000000100011</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000100011</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" ref="H121:H184" si="536">RIGHT(F121,6)</f>
+        <f t="shared" ref="H121" si="540">RIGHT(F121,6)</f>
         <v>100011</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" ref="I121:I184" si="537">"1"&amp;$K$3&amp;G121</f>
+        <f t="shared" ref="I121" si="541">"1"&amp;$K$3&amp;G121</f>
         <v>10000000</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" ref="J121:J166" si="538">"00"&amp;H121</f>
+        <f t="shared" ref="J121" si="542">"00"&amp;H121</f>
         <v>00100011</v>
       </c>
       <c r="K121" s="6" t="str">
-        <f t="shared" ref="K121:K166" si="539">I122&amp;J122</f>
+        <f t="shared" ref="K121" si="543">I122&amp;J122</f>
         <v>8023</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="O121">
+        <f t="shared" si="333"/>
+        <v>35</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="342"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="I122" s="3" t="str">
-        <f t="shared" ref="I122:I185" si="540">BIN2HEX(I121)</f>
+        <f t="shared" ref="I122" si="544">BIN2HEX(I121)</f>
         <v>80</v>
       </c>
       <c r="J122" s="3" t="str">
-        <f t="shared" ref="J122:J166" si="541">BIN2HEX(J121,2)</f>
+        <f t="shared" ref="J122" si="545">BIN2HEX(J121,2)</f>
         <v>23</v>
       </c>
       <c r="K122" s="6" t="str">
-        <f t="shared" ref="K122" si="542">I122&amp;J122</f>
+        <f t="shared" ref="K122" si="546">I122&amp;J122</f>
         <v>8023</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="O122" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -4220,57 +5172,73 @@
         <v>2349.3200000000002</v>
       </c>
       <c r="C123">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>33</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>21</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" ref="E123:E186" si="543">DEC2BIN(MOD(QUOTIENT(C123,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C123,256^0),256),8)</f>
+        <f t="shared" ref="E123" si="547">DEC2BIN(MOD(QUOTIENT(C123,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C123,256^0),256),8)</f>
         <v>0000000000100001</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000100001</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" ref="H123:H186" si="544">RIGHT(F123,6)</f>
+        <f t="shared" ref="H123" si="548">RIGHT(F123,6)</f>
         <v>100001</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" ref="I123:I186" si="545">"1"&amp;$K$3&amp;G123</f>
+        <f t="shared" ref="I123" si="549">"1"&amp;$K$3&amp;G123</f>
         <v>10000000</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" ref="J123:J166" si="546">"00"&amp;H123</f>
+        <f t="shared" ref="J123" si="550">"00"&amp;H123</f>
         <v>00100001</v>
       </c>
       <c r="K123" s="6" t="str">
-        <f t="shared" ref="K123:K166" si="547">I124&amp;J124</f>
+        <f t="shared" ref="K123" si="551">I124&amp;J124</f>
         <v>8021</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="O123">
+        <f t="shared" si="333"/>
+        <v>33</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="342"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="I124" s="3" t="str">
-        <f t="shared" ref="I124:I187" si="548">BIN2HEX(I123)</f>
+        <f t="shared" ref="I124" si="552">BIN2HEX(I123)</f>
         <v>80</v>
       </c>
       <c r="J124" s="3" t="str">
-        <f t="shared" ref="J124:J166" si="549">BIN2HEX(J123,2)</f>
+        <f t="shared" ref="J124" si="553">BIN2HEX(J123,2)</f>
         <v>21</v>
       </c>
       <c r="K124" s="6" t="str">
-        <f t="shared" ref="K124" si="550">I124&amp;J124</f>
+        <f t="shared" ref="K124" si="554">I124&amp;J124</f>
         <v>8021</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="O124" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>71</v>
       </c>
@@ -4278,57 +5246,73 @@
         <v>2489.02</v>
       </c>
       <c r="C125">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>31</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>1F</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" ref="E125:E188" si="551">DEC2BIN(MOD(QUOTIENT(C125,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C125,256^0),256),8)</f>
+        <f t="shared" ref="E125" si="555">DEC2BIN(MOD(QUOTIENT(C125,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C125,256^0),256),8)</f>
         <v>0000000000011111</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000011111</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" ref="H125:H188" si="552">RIGHT(F125,6)</f>
+        <f t="shared" ref="H125" si="556">RIGHT(F125,6)</f>
         <v>011111</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" ref="I125:I188" si="553">"1"&amp;$K$3&amp;G125</f>
+        <f t="shared" ref="I125" si="557">"1"&amp;$K$3&amp;G125</f>
         <v>10000000</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" ref="J125:J166" si="554">"00"&amp;H125</f>
+        <f t="shared" ref="J125" si="558">"00"&amp;H125</f>
         <v>00011111</v>
       </c>
       <c r="K125" s="6" t="str">
-        <f t="shared" ref="K125:K166" si="555">I126&amp;J126</f>
+        <f t="shared" ref="K125" si="559">I126&amp;J126</f>
         <v>801F</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="O125">
+        <f t="shared" si="333"/>
+        <v>31</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="342"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="I126" s="3" t="str">
-        <f t="shared" ref="I126:I189" si="556">BIN2HEX(I125)</f>
+        <f t="shared" ref="I126" si="560">BIN2HEX(I125)</f>
         <v>80</v>
       </c>
       <c r="J126" s="3" t="str">
-        <f t="shared" ref="J126:J166" si="557">BIN2HEX(J125,2)</f>
+        <f t="shared" ref="J126" si="561">BIN2HEX(J125,2)</f>
         <v>1F</v>
       </c>
       <c r="K126" s="6" t="str">
-        <f t="shared" ref="K126" si="558">I126&amp;J126</f>
+        <f t="shared" ref="K126" si="562">I126&amp;J126</f>
         <v>801F</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="O126" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>72</v>
       </c>
@@ -4336,57 +5320,73 @@
         <v>2637.02</v>
       </c>
       <c r="C127">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>29</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>1D</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" ref="E127:E190" si="559">DEC2BIN(MOD(QUOTIENT(C127,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C127,256^0),256),8)</f>
+        <f t="shared" ref="E127" si="563">DEC2BIN(MOD(QUOTIENT(C127,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C127,256^0),256),8)</f>
         <v>0000000000011101</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000011101</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" ref="H127:H190" si="560">RIGHT(F127,6)</f>
+        <f t="shared" ref="H127" si="564">RIGHT(F127,6)</f>
         <v>011101</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" ref="I127:I190" si="561">"1"&amp;$K$3&amp;G127</f>
+        <f t="shared" ref="I127" si="565">"1"&amp;$K$3&amp;G127</f>
         <v>10000000</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" ref="J127:J166" si="562">"00"&amp;H127</f>
+        <f t="shared" ref="J127" si="566">"00"&amp;H127</f>
         <v>00011101</v>
       </c>
       <c r="K127" s="6" t="str">
-        <f t="shared" ref="K127:K166" si="563">I128&amp;J128</f>
+        <f t="shared" ref="K127" si="567">I128&amp;J128</f>
         <v>801D</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="O127">
+        <f t="shared" si="333"/>
+        <v>29</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="342"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="I128" s="3" t="str">
-        <f t="shared" ref="I128:I191" si="564">BIN2HEX(I127)</f>
+        <f t="shared" ref="I128" si="568">BIN2HEX(I127)</f>
         <v>80</v>
       </c>
       <c r="J128" s="3" t="str">
-        <f t="shared" ref="J128:J166" si="565">BIN2HEX(J127,2)</f>
+        <f t="shared" ref="J128" si="569">BIN2HEX(J127,2)</f>
         <v>1D</v>
       </c>
       <c r="K128" s="6" t="str">
-        <f t="shared" ref="K128" si="566">I128&amp;J128</f>
+        <f t="shared" ref="K128" si="570">I128&amp;J128</f>
         <v>801D</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="O128" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P128" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -4394,57 +5394,73 @@
         <v>2793.83</v>
       </c>
       <c r="C129">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>27</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>1B</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" ref="E129:E192" si="567">DEC2BIN(MOD(QUOTIENT(C129,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C129,256^0),256),8)</f>
+        <f t="shared" ref="E129" si="571">DEC2BIN(MOD(QUOTIENT(C129,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C129,256^0),256),8)</f>
         <v>0000000000011011</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000011011</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" ref="H129:H192" si="568">RIGHT(F129,6)</f>
+        <f t="shared" ref="H129" si="572">RIGHT(F129,6)</f>
         <v>011011</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" ref="I129:I192" si="569">"1"&amp;$K$3&amp;G129</f>
+        <f t="shared" ref="I129" si="573">"1"&amp;$K$3&amp;G129</f>
         <v>10000000</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" ref="J129:J166" si="570">"00"&amp;H129</f>
+        <f t="shared" ref="J129" si="574">"00"&amp;H129</f>
         <v>00011011</v>
       </c>
       <c r="K129" s="6" t="str">
-        <f t="shared" ref="K129:K166" si="571">I130&amp;J130</f>
+        <f t="shared" ref="K129" si="575">I130&amp;J130</f>
         <v>801B</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="O129">
+        <f t="shared" si="333"/>
+        <v>27</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="342"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="I130" s="3" t="str">
-        <f t="shared" ref="I130:I193" si="572">BIN2HEX(I129)</f>
+        <f t="shared" ref="I130" si="576">BIN2HEX(I129)</f>
         <v>80</v>
       </c>
       <c r="J130" s="3" t="str">
-        <f t="shared" ref="J130:J166" si="573">BIN2HEX(J129,2)</f>
+        <f t="shared" ref="J130" si="577">BIN2HEX(J129,2)</f>
         <v>1B</v>
       </c>
       <c r="K130" s="6" t="str">
-        <f t="shared" ref="K130" si="574">I130&amp;J130</f>
+        <f t="shared" ref="K130" si="578">I130&amp;J130</f>
         <v>801B</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="O130" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>74</v>
       </c>
@@ -4452,57 +5468,73 @@
         <v>2959.96</v>
       </c>
       <c r="C131">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>26</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>1A</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="575">DEC2BIN(MOD(QUOTIENT(C131,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C131,256^0),256),8)</f>
+        <f t="shared" ref="E131" si="579">DEC2BIN(MOD(QUOTIENT(C131,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C131,256^0),256),8)</f>
         <v>0000000000011010</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000011010</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="576">RIGHT(F131,6)</f>
+        <f t="shared" ref="H131" si="580">RIGHT(F131,6)</f>
         <v>011010</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I194" si="577">"1"&amp;$K$3&amp;G131</f>
+        <f t="shared" ref="I131" si="581">"1"&amp;$K$3&amp;G131</f>
         <v>10000000</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" ref="J131:J166" si="578">"00"&amp;H131</f>
+        <f t="shared" ref="J131" si="582">"00"&amp;H131</f>
         <v>00011010</v>
       </c>
       <c r="K131" s="6" t="str">
-        <f t="shared" ref="K131:K166" si="579">I132&amp;J132</f>
+        <f t="shared" ref="K131" si="583">I132&amp;J132</f>
         <v>801A</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="O131">
+        <f t="shared" si="333"/>
+        <v>26</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="342"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="I132" s="3" t="str">
-        <f t="shared" ref="I132:I195" si="580">BIN2HEX(I131)</f>
+        <f t="shared" ref="I132" si="584">BIN2HEX(I131)</f>
         <v>80</v>
       </c>
       <c r="J132" s="3" t="str">
-        <f t="shared" ref="J132:J166" si="581">BIN2HEX(J131,2)</f>
+        <f t="shared" ref="J132" si="585">BIN2HEX(J131,2)</f>
         <v>1A</v>
       </c>
       <c r="K132" s="6" t="str">
-        <f t="shared" ref="K132" si="582">I132&amp;J132</f>
+        <f t="shared" ref="K132" si="586">I132&amp;J132</f>
         <v>801A</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="O132" t="str">
+        <f t="shared" si="333"/>
+        <v/>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>75</v>
       </c>
@@ -4510,57 +5542,73 @@
         <v>3135.96</v>
       </c>
       <c r="C133">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>24</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>18</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" ref="E133:E196" si="583">DEC2BIN(MOD(QUOTIENT(C133,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C133,256^0),256),8)</f>
+        <f t="shared" ref="E133" si="587">DEC2BIN(MOD(QUOTIENT(C133,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C133,256^0),256),8)</f>
         <v>0000000000011000</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000011000</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" ref="H133:H196" si="584">RIGHT(F133,6)</f>
+        <f t="shared" ref="H133" si="588">RIGHT(F133,6)</f>
         <v>011000</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" ref="I133:I196" si="585">"1"&amp;$K$3&amp;G133</f>
+        <f t="shared" ref="I133" si="589">"1"&amp;$K$3&amp;G133</f>
         <v>10000000</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" ref="J133:J166" si="586">"00"&amp;H133</f>
+        <f t="shared" ref="J133" si="590">"00"&amp;H133</f>
         <v>00011000</v>
       </c>
       <c r="K133" s="6" t="str">
-        <f t="shared" ref="K133:K166" si="587">I134&amp;J134</f>
+        <f t="shared" ref="K133" si="591">I134&amp;J134</f>
         <v>8018</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="O133">
+        <f t="shared" si="333"/>
+        <v>24</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="342"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="I134" s="3" t="str">
-        <f t="shared" ref="I134:I197" si="588">BIN2HEX(I133)</f>
+        <f t="shared" ref="I134" si="592">BIN2HEX(I133)</f>
         <v>80</v>
       </c>
       <c r="J134" s="3" t="str">
-        <f t="shared" ref="J134:J166" si="589">BIN2HEX(J133,2)</f>
+        <f t="shared" ref="J134" si="593">BIN2HEX(J133,2)</f>
         <v>18</v>
       </c>
       <c r="K134" s="6" t="str">
-        <f t="shared" ref="K134" si="590">I134&amp;J134</f>
+        <f t="shared" ref="K134" si="594">I134&amp;J134</f>
         <v>8018</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="O134" t="str">
+        <f t="shared" ref="O134:O166" si="595">IF(C134&lt;&gt;"",C134,"")</f>
+        <v/>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>76</v>
       </c>
@@ -4568,57 +5616,73 @@
         <v>3322.44</v>
       </c>
       <c r="C135">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>23</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>17</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" ref="E135:E198" si="591">DEC2BIN(MOD(QUOTIENT(C135,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C135,256^0),256),8)</f>
+        <f t="shared" ref="E135" si="596">DEC2BIN(MOD(QUOTIENT(C135,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C135,256^0),256),8)</f>
         <v>0000000000010111</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010111</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" ref="H135:H198" si="592">RIGHT(F135,6)</f>
+        <f t="shared" ref="H135" si="597">RIGHT(F135,6)</f>
         <v>010111</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" ref="I135:I198" si="593">"1"&amp;$K$3&amp;G135</f>
+        <f t="shared" ref="I135" si="598">"1"&amp;$K$3&amp;G135</f>
         <v>10000000</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" ref="J135:J166" si="594">"00"&amp;H135</f>
+        <f t="shared" ref="J135" si="599">"00"&amp;H135</f>
         <v>00010111</v>
       </c>
       <c r="K135" s="6" t="str">
-        <f t="shared" ref="K135:K166" si="595">I136&amp;J136</f>
+        <f t="shared" ref="K135" si="600">I136&amp;J136</f>
         <v>8017</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="O135">
+        <f t="shared" si="595"/>
+        <v>23</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="342"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="I136" s="3" t="str">
-        <f t="shared" ref="I136:I199" si="596">BIN2HEX(I135)</f>
+        <f t="shared" ref="I136" si="601">BIN2HEX(I135)</f>
         <v>80</v>
       </c>
       <c r="J136" s="3" t="str">
-        <f t="shared" ref="J136:J166" si="597">BIN2HEX(J135,2)</f>
+        <f t="shared" ref="J136" si="602">BIN2HEX(J135,2)</f>
         <v>17</v>
       </c>
       <c r="K136" s="6" t="str">
-        <f t="shared" ref="K136" si="598">I136&amp;J136</f>
+        <f t="shared" ref="K136" si="603">I136&amp;J136</f>
         <v>8017</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="O136" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" ref="P136:P166" si="604">IF(O136&lt;&gt;"",P134+1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>91</v>
       </c>
@@ -4626,57 +5690,73 @@
         <v>3520</v>
       </c>
       <c r="C137">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>22</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>16</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" ref="E137:E200" si="599">DEC2BIN(MOD(QUOTIENT(C137,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C137,256^0),256),8)</f>
+        <f t="shared" ref="E137" si="605">DEC2BIN(MOD(QUOTIENT(C137,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C137,256^0),256),8)</f>
         <v>0000000000010110</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010110</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" ref="H137:H200" si="600">RIGHT(F137,6)</f>
+        <f t="shared" ref="H137" si="606">RIGHT(F137,6)</f>
         <v>010110</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" ref="I137:I200" si="601">"1"&amp;$K$3&amp;G137</f>
+        <f t="shared" ref="I137" si="607">"1"&amp;$K$3&amp;G137</f>
         <v>10000000</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" ref="J137:J166" si="602">"00"&amp;H137</f>
+        <f t="shared" ref="J137" si="608">"00"&amp;H137</f>
         <v>00010110</v>
       </c>
       <c r="K137" s="6" t="str">
-        <f t="shared" ref="K137:K166" si="603">I138&amp;J138</f>
+        <f t="shared" ref="K137" si="609">I138&amp;J138</f>
         <v>8016</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="O137">
+        <f t="shared" si="595"/>
+        <v>22</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="604"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="I138" s="3" t="str">
-        <f t="shared" ref="I138:I201" si="604">BIN2HEX(I137)</f>
+        <f t="shared" ref="I138" si="610">BIN2HEX(I137)</f>
         <v>80</v>
       </c>
       <c r="J138" s="3" t="str">
-        <f t="shared" ref="J138:J166" si="605">BIN2HEX(J137,2)</f>
+        <f t="shared" ref="J138" si="611">BIN2HEX(J137,2)</f>
         <v>16</v>
       </c>
       <c r="K138" s="6" t="str">
-        <f t="shared" ref="K138" si="606">I138&amp;J138</f>
+        <f t="shared" ref="K138" si="612">I138&amp;J138</f>
         <v>8016</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="O138" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>77</v>
       </c>
@@ -4684,57 +5764,73 @@
         <v>3729.31</v>
       </c>
       <c r="C139">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>20</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>14</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" ref="E139:E202" si="607">DEC2BIN(MOD(QUOTIENT(C139,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C139,256^0),256),8)</f>
+        <f t="shared" ref="E139" si="613">DEC2BIN(MOD(QUOTIENT(C139,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C139,256^0),256),8)</f>
         <v>0000000000010100</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010100</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" ref="H139:H202" si="608">RIGHT(F139,6)</f>
+        <f t="shared" ref="H139" si="614">RIGHT(F139,6)</f>
         <v>010100</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" ref="I139:I202" si="609">"1"&amp;$K$3&amp;G139</f>
+        <f t="shared" ref="I139" si="615">"1"&amp;$K$3&amp;G139</f>
         <v>10000000</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" ref="J139:J166" si="610">"00"&amp;H139</f>
+        <f t="shared" ref="J139" si="616">"00"&amp;H139</f>
         <v>00010100</v>
       </c>
       <c r="K139" s="6" t="str">
-        <f t="shared" ref="K139:K166" si="611">I140&amp;J140</f>
+        <f t="shared" ref="K139" si="617">I140&amp;J140</f>
         <v>8014</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="O139">
+        <f t="shared" si="595"/>
+        <v>20</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="604"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="I140" s="3" t="str">
-        <f t="shared" ref="I140:I203" si="612">BIN2HEX(I139)</f>
+        <f t="shared" ref="I140" si="618">BIN2HEX(I139)</f>
         <v>80</v>
       </c>
       <c r="J140" s="3" t="str">
-        <f t="shared" ref="J140:J166" si="613">BIN2HEX(J139,2)</f>
+        <f t="shared" ref="J140" si="619">BIN2HEX(J139,2)</f>
         <v>14</v>
       </c>
       <c r="K140" s="6" t="str">
-        <f t="shared" ref="K140" si="614">I140&amp;J140</f>
+        <f t="shared" ref="K140" si="620">I140&amp;J140</f>
         <v>8014</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="O140" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -4742,57 +5838,73 @@
         <v>3951.07</v>
       </c>
       <c r="C141">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>19</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>13</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" ref="E141:E204" si="615">DEC2BIN(MOD(QUOTIENT(C141,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C141,256^0),256),8)</f>
+        <f t="shared" ref="E141" si="621">DEC2BIN(MOD(QUOTIENT(C141,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C141,256^0),256),8)</f>
         <v>0000000000010011</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010011</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ref="H141:H204" si="616">RIGHT(F141,6)</f>
+        <f t="shared" ref="H141" si="622">RIGHT(F141,6)</f>
         <v>010011</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" ref="I141:I204" si="617">"1"&amp;$K$3&amp;G141</f>
+        <f t="shared" ref="I141" si="623">"1"&amp;$K$3&amp;G141</f>
         <v>10000000</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" ref="J141:J166" si="618">"00"&amp;H141</f>
+        <f t="shared" ref="J141" si="624">"00"&amp;H141</f>
         <v>00010011</v>
       </c>
       <c r="K141" s="6" t="str">
-        <f t="shared" ref="K141:K166" si="619">I142&amp;J142</f>
+        <f t="shared" ref="K141" si="625">I142&amp;J142</f>
         <v>8013</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="O141">
+        <f t="shared" si="595"/>
+        <v>19</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="604"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="I142" s="3" t="str">
-        <f t="shared" ref="I142:I205" si="620">BIN2HEX(I141)</f>
+        <f t="shared" ref="I142" si="626">BIN2HEX(I141)</f>
         <v>80</v>
       </c>
       <c r="J142" s="3" t="str">
-        <f t="shared" ref="J142:J166" si="621">BIN2HEX(J141,2)</f>
+        <f t="shared" ref="J142" si="627">BIN2HEX(J141,2)</f>
         <v>13</v>
       </c>
       <c r="K142" s="6" t="str">
-        <f t="shared" ref="K142" si="622">I142&amp;J142</f>
+        <f t="shared" ref="K142" si="628">I142&amp;J142</f>
         <v>8013</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="O142" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>79</v>
       </c>
@@ -4800,57 +5912,73 @@
         <v>4186.01</v>
       </c>
       <c r="C143">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>18</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>12</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" ref="E143:E206" si="623">DEC2BIN(MOD(QUOTIENT(C143,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C143,256^0),256),8)</f>
+        <f t="shared" ref="E143" si="629">DEC2BIN(MOD(QUOTIENT(C143,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C143,256^0),256),8)</f>
         <v>0000000000010010</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010010</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" ref="H143:H206" si="624">RIGHT(F143,6)</f>
+        <f t="shared" ref="H143" si="630">RIGHT(F143,6)</f>
         <v>010010</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" ref="I143:I206" si="625">"1"&amp;$K$3&amp;G143</f>
+        <f t="shared" ref="I143" si="631">"1"&amp;$K$3&amp;G143</f>
         <v>10000000</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" ref="J143:J166" si="626">"00"&amp;H143</f>
+        <f t="shared" ref="J143" si="632">"00"&amp;H143</f>
         <v>00010010</v>
       </c>
       <c r="K143" s="6" t="str">
-        <f t="shared" ref="K143:K166" si="627">I144&amp;J144</f>
+        <f t="shared" ref="K143" si="633">I144&amp;J144</f>
         <v>8012</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="O143">
+        <f t="shared" si="595"/>
+        <v>18</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="604"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="I144" s="3" t="str">
-        <f t="shared" ref="I144:I207" si="628">BIN2HEX(I143)</f>
+        <f t="shared" ref="I144" si="634">BIN2HEX(I143)</f>
         <v>80</v>
       </c>
       <c r="J144" s="3" t="str">
-        <f t="shared" ref="J144:J166" si="629">BIN2HEX(J143,2)</f>
+        <f t="shared" ref="J144" si="635">BIN2HEX(J143,2)</f>
         <v>12</v>
       </c>
       <c r="K144" s="6" t="str">
-        <f t="shared" ref="K144" si="630">I144&amp;J144</f>
+        <f t="shared" ref="K144" si="636">I144&amp;J144</f>
         <v>8012</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="O144" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>80</v>
       </c>
@@ -4858,57 +5986,73 @@
         <v>4434.92</v>
       </c>
       <c r="C145">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>17</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>11</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" ref="E145:E208" si="631">DEC2BIN(MOD(QUOTIENT(C145,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C145,256^0),256),8)</f>
+        <f t="shared" ref="E145" si="637">DEC2BIN(MOD(QUOTIENT(C145,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C145,256^0),256),8)</f>
         <v>0000000000010001</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010001</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" ref="H145:H208" si="632">RIGHT(F145,6)</f>
+        <f t="shared" ref="H145" si="638">RIGHT(F145,6)</f>
         <v>010001</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" ref="I145:I208" si="633">"1"&amp;$K$3&amp;G145</f>
+        <f t="shared" ref="I145" si="639">"1"&amp;$K$3&amp;G145</f>
         <v>10000000</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" ref="J145:J166" si="634">"00"&amp;H145</f>
+        <f t="shared" ref="J145" si="640">"00"&amp;H145</f>
         <v>00010001</v>
       </c>
       <c r="K145" s="6" t="str">
-        <f t="shared" ref="K145:K166" si="635">I146&amp;J146</f>
+        <f t="shared" ref="K145" si="641">I146&amp;J146</f>
         <v>8011</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="O145">
+        <f t="shared" si="595"/>
+        <v>17</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="604"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="I146" s="3" t="str">
-        <f t="shared" ref="I146:I209" si="636">BIN2HEX(I145)</f>
+        <f t="shared" ref="I146" si="642">BIN2HEX(I145)</f>
         <v>80</v>
       </c>
       <c r="J146" s="3" t="str">
-        <f t="shared" ref="J146:J166" si="637">BIN2HEX(J145,2)</f>
+        <f t="shared" ref="J146" si="643">BIN2HEX(J145,2)</f>
         <v>11</v>
       </c>
       <c r="K146" s="6" t="str">
-        <f t="shared" ref="K146" si="638">I146&amp;J146</f>
+        <f t="shared" ref="K146" si="644">I146&amp;J146</f>
         <v>8011</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="O146" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>81</v>
       </c>
@@ -4916,57 +6060,73 @@
         <v>4698.63</v>
       </c>
       <c r="C147">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>16</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>10</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" ref="E147:E210" si="639">DEC2BIN(MOD(QUOTIENT(C147,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C147,256^0),256),8)</f>
+        <f t="shared" ref="E147" si="645">DEC2BIN(MOD(QUOTIENT(C147,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C147,256^0),256),8)</f>
         <v>0000000000010000</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000010000</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" ref="H147:H210" si="640">RIGHT(F147,6)</f>
+        <f t="shared" ref="H147" si="646">RIGHT(F147,6)</f>
         <v>010000</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" ref="I147:I210" si="641">"1"&amp;$K$3&amp;G147</f>
+        <f t="shared" ref="I147" si="647">"1"&amp;$K$3&amp;G147</f>
         <v>10000000</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" ref="J147:J166" si="642">"00"&amp;H147</f>
+        <f t="shared" ref="J147" si="648">"00"&amp;H147</f>
         <v>00010000</v>
       </c>
       <c r="K147" s="6" t="str">
-        <f t="shared" ref="K147:K166" si="643">I148&amp;J148</f>
+        <f t="shared" ref="K147" si="649">I148&amp;J148</f>
         <v>8010</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="O147">
+        <f t="shared" si="595"/>
+        <v>16</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="604"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="I148" s="3" t="str">
-        <f t="shared" ref="I148:I211" si="644">BIN2HEX(I147)</f>
+        <f t="shared" ref="I148" si="650">BIN2HEX(I147)</f>
         <v>80</v>
       </c>
       <c r="J148" s="3" t="str">
-        <f t="shared" ref="J148:J166" si="645">BIN2HEX(J147,2)</f>
+        <f t="shared" ref="J148" si="651">BIN2HEX(J147,2)</f>
         <v>10</v>
       </c>
       <c r="K148" s="6" t="str">
-        <f t="shared" ref="K148" si="646">I148&amp;J148</f>
+        <f t="shared" ref="K148" si="652">I148&amp;J148</f>
         <v>8010</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="O148" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P148" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>82</v>
       </c>
@@ -4974,57 +6134,73 @@
         <v>4978.03</v>
       </c>
       <c r="C149">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>15</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>F</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" ref="E149:E212" si="647">DEC2BIN(MOD(QUOTIENT(C149,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C149,256^0),256),8)</f>
+        <f t="shared" ref="E149" si="653">DEC2BIN(MOD(QUOTIENT(C149,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C149,256^0),256),8)</f>
         <v>0000000000001111</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001111</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" ref="H149:H212" si="648">RIGHT(F149,6)</f>
+        <f t="shared" ref="H149" si="654">RIGHT(F149,6)</f>
         <v>001111</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" ref="I149:I212" si="649">"1"&amp;$K$3&amp;G149</f>
+        <f t="shared" ref="I149" si="655">"1"&amp;$K$3&amp;G149</f>
         <v>10000000</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" ref="J149:J166" si="650">"00"&amp;H149</f>
+        <f t="shared" ref="J149" si="656">"00"&amp;H149</f>
         <v>00001111</v>
       </c>
       <c r="K149" s="6" t="str">
-        <f t="shared" ref="K149:K166" si="651">I150&amp;J150</f>
+        <f t="shared" ref="K149" si="657">I150&amp;J150</f>
         <v>800F</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="O149">
+        <f t="shared" si="595"/>
+        <v>15</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="604"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="I150" s="3" t="str">
-        <f t="shared" ref="I150:I213" si="652">BIN2HEX(I149)</f>
+        <f t="shared" ref="I150" si="658">BIN2HEX(I149)</f>
         <v>80</v>
       </c>
       <c r="J150" s="3" t="str">
-        <f t="shared" ref="J150:J166" si="653">BIN2HEX(J149,2)</f>
+        <f t="shared" ref="J150" si="659">BIN2HEX(J149,2)</f>
         <v>0F</v>
       </c>
       <c r="K150" s="6" t="str">
-        <f t="shared" ref="K150" si="654">I150&amp;J150</f>
+        <f t="shared" ref="K150" si="660">I150&amp;J150</f>
         <v>800F</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="O150" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>83</v>
       </c>
@@ -5032,57 +6208,73 @@
         <v>5274.04</v>
       </c>
       <c r="C151">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>14</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>E</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" ref="E151:E214" si="655">DEC2BIN(MOD(QUOTIENT(C151,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C151,256^0),256),8)</f>
+        <f t="shared" ref="E151" si="661">DEC2BIN(MOD(QUOTIENT(C151,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C151,256^0),256),8)</f>
         <v>0000000000001110</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001110</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" ref="H151:H214" si="656">RIGHT(F151,6)</f>
+        <f t="shared" ref="H151" si="662">RIGHT(F151,6)</f>
         <v>001110</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" ref="I151:I214" si="657">"1"&amp;$K$3&amp;G151</f>
+        <f t="shared" ref="I151" si="663">"1"&amp;$K$3&amp;G151</f>
         <v>10000000</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" ref="J151:J166" si="658">"00"&amp;H151</f>
+        <f t="shared" ref="J151" si="664">"00"&amp;H151</f>
         <v>00001110</v>
       </c>
       <c r="K151" s="6" t="str">
-        <f t="shared" ref="K151:K166" si="659">I152&amp;J152</f>
+        <f t="shared" ref="K151" si="665">I152&amp;J152</f>
         <v>800E</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="O151">
+        <f t="shared" si="595"/>
+        <v>14</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="604"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="I152" s="3" t="str">
-        <f t="shared" ref="I152:I215" si="660">BIN2HEX(I151)</f>
+        <f t="shared" ref="I152" si="666">BIN2HEX(I151)</f>
         <v>80</v>
       </c>
       <c r="J152" s="3" t="str">
-        <f t="shared" ref="J152:J166" si="661">BIN2HEX(J151,2)</f>
+        <f t="shared" ref="J152" si="667">BIN2HEX(J151,2)</f>
         <v>0E</v>
       </c>
       <c r="K152" s="6" t="str">
-        <f t="shared" ref="K152" si="662">I152&amp;J152</f>
+        <f t="shared" ref="K152" si="668">I152&amp;J152</f>
         <v>800E</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="O152" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>84</v>
       </c>
@@ -5090,57 +6282,73 @@
         <v>5587.65</v>
       </c>
       <c r="C153">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>13</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>D</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" ref="E153:E216" si="663">DEC2BIN(MOD(QUOTIENT(C153,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C153,256^0),256),8)</f>
+        <f t="shared" ref="E153" si="669">DEC2BIN(MOD(QUOTIENT(C153,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C153,256^0),256),8)</f>
         <v>0000000000001101</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001101</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" ref="H153:H216" si="664">RIGHT(F153,6)</f>
+        <f t="shared" ref="H153" si="670">RIGHT(F153,6)</f>
         <v>001101</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" ref="I153:I216" si="665">"1"&amp;$K$3&amp;G153</f>
+        <f t="shared" ref="I153" si="671">"1"&amp;$K$3&amp;G153</f>
         <v>10000000</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" ref="J153:J166" si="666">"00"&amp;H153</f>
+        <f t="shared" ref="J153" si="672">"00"&amp;H153</f>
         <v>00001101</v>
       </c>
       <c r="K153" s="6" t="str">
-        <f t="shared" ref="K153:K166" si="667">I154&amp;J154</f>
+        <f t="shared" ref="K153" si="673">I154&amp;J154</f>
         <v>800D</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="O153">
+        <f t="shared" si="595"/>
+        <v>13</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="604"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="I154" s="3" t="str">
-        <f t="shared" ref="I154:I217" si="668">BIN2HEX(I153)</f>
+        <f t="shared" ref="I154" si="674">BIN2HEX(I153)</f>
         <v>80</v>
       </c>
       <c r="J154" s="3" t="str">
-        <f t="shared" ref="J154:J166" si="669">BIN2HEX(J153,2)</f>
+        <f t="shared" ref="J154" si="675">BIN2HEX(J153,2)</f>
         <v>0D</v>
       </c>
       <c r="K154" s="6" t="str">
-        <f t="shared" ref="K154" si="670">I154&amp;J154</f>
+        <f t="shared" ref="K154" si="676">I154&amp;J154</f>
         <v>800D</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="O154" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>85</v>
       </c>
@@ -5148,57 +6356,73 @@
         <v>5919.91</v>
       </c>
       <c r="C155">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>13</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>D</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" ref="E155:E218" si="671">DEC2BIN(MOD(QUOTIENT(C155,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C155,256^0),256),8)</f>
+        <f t="shared" ref="E155" si="677">DEC2BIN(MOD(QUOTIENT(C155,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C155,256^0),256),8)</f>
         <v>0000000000001101</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001101</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" ref="H155:H218" si="672">RIGHT(F155,6)</f>
+        <f t="shared" ref="H155" si="678">RIGHT(F155,6)</f>
         <v>001101</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" ref="I155:I218" si="673">"1"&amp;$K$3&amp;G155</f>
+        <f t="shared" ref="I155" si="679">"1"&amp;$K$3&amp;G155</f>
         <v>10000000</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" ref="J155:J166" si="674">"00"&amp;H155</f>
+        <f t="shared" ref="J155" si="680">"00"&amp;H155</f>
         <v>00001101</v>
       </c>
       <c r="K155" s="6" t="str">
-        <f t="shared" ref="K155:K166" si="675">I156&amp;J156</f>
+        <f t="shared" ref="K155" si="681">I156&amp;J156</f>
         <v>800D</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="O155">
+        <f t="shared" si="595"/>
+        <v>13</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="604"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="I156" s="3" t="str">
-        <f t="shared" ref="I156:I219" si="676">BIN2HEX(I155)</f>
+        <f t="shared" ref="I156" si="682">BIN2HEX(I155)</f>
         <v>80</v>
       </c>
       <c r="J156" s="3" t="str">
-        <f t="shared" ref="J156:J166" si="677">BIN2HEX(J155,2)</f>
+        <f t="shared" ref="J156" si="683">BIN2HEX(J155,2)</f>
         <v>0D</v>
       </c>
       <c r="K156" s="6" t="str">
-        <f t="shared" ref="K156" si="678">I156&amp;J156</f>
+        <f t="shared" ref="K156" si="684">I156&amp;J156</f>
         <v>800D</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="O156" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>86</v>
       </c>
@@ -5206,57 +6430,73 @@
         <v>6271.93</v>
       </c>
       <c r="C157">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>12</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>C</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" ref="E157:E220" si="679">DEC2BIN(MOD(QUOTIENT(C157,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C157,256^0),256),8)</f>
+        <f t="shared" ref="E157" si="685">DEC2BIN(MOD(QUOTIENT(C157,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C157,256^0),256),8)</f>
         <v>0000000000001100</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001100</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" ref="H157:H220" si="680">RIGHT(F157,6)</f>
+        <f t="shared" ref="H157" si="686">RIGHT(F157,6)</f>
         <v>001100</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" ref="I157:I220" si="681">"1"&amp;$K$3&amp;G157</f>
+        <f t="shared" ref="I157" si="687">"1"&amp;$K$3&amp;G157</f>
         <v>10000000</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" ref="J157:J166" si="682">"00"&amp;H157</f>
+        <f t="shared" ref="J157" si="688">"00"&amp;H157</f>
         <v>00001100</v>
       </c>
       <c r="K157" s="6" t="str">
-        <f t="shared" ref="K157:K166" si="683">I158&amp;J158</f>
+        <f t="shared" ref="K157" si="689">I158&amp;J158</f>
         <v>800C</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="O157">
+        <f t="shared" si="595"/>
+        <v>12</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="604"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="I158" s="3" t="str">
-        <f t="shared" ref="I158:I221" si="684">BIN2HEX(I157)</f>
+        <f t="shared" ref="I158" si="690">BIN2HEX(I157)</f>
         <v>80</v>
       </c>
       <c r="J158" s="3" t="str">
-        <f t="shared" ref="J158:J166" si="685">BIN2HEX(J157,2)</f>
+        <f t="shared" ref="J158" si="691">BIN2HEX(J157,2)</f>
         <v>0C</v>
       </c>
       <c r="K158" s="6" t="str">
-        <f t="shared" ref="K158" si="686">I158&amp;J158</f>
+        <f t="shared" ref="K158" si="692">I158&amp;J158</f>
         <v>800C</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="O158" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -5264,57 +6504,73 @@
         <v>6644.88</v>
       </c>
       <c r="C159">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>11</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>B</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" ref="E159:E222" si="687">DEC2BIN(MOD(QUOTIENT(C159,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C159,256^0),256),8)</f>
+        <f t="shared" ref="E159" si="693">DEC2BIN(MOD(QUOTIENT(C159,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C159,256^0),256),8)</f>
         <v>0000000000001011</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001011</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" ref="H159:H222" si="688">RIGHT(F159,6)</f>
+        <f t="shared" ref="H159" si="694">RIGHT(F159,6)</f>
         <v>001011</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" ref="I159:I222" si="689">"1"&amp;$K$3&amp;G159</f>
+        <f t="shared" ref="I159" si="695">"1"&amp;$K$3&amp;G159</f>
         <v>10000000</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" ref="J159:J166" si="690">"00"&amp;H159</f>
+        <f t="shared" ref="J159" si="696">"00"&amp;H159</f>
         <v>00001011</v>
       </c>
       <c r="K159" s="6" t="str">
-        <f t="shared" ref="K159:K166" si="691">I160&amp;J160</f>
+        <f t="shared" ref="K159" si="697">I160&amp;J160</f>
         <v>800B</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="O159">
+        <f t="shared" si="595"/>
+        <v>11</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="604"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="I160" s="3" t="str">
-        <f t="shared" ref="I160:I223" si="692">BIN2HEX(I159)</f>
+        <f t="shared" ref="I160" si="698">BIN2HEX(I159)</f>
         <v>80</v>
       </c>
       <c r="J160" s="3" t="str">
-        <f t="shared" ref="J160:J166" si="693">BIN2HEX(J159,2)</f>
+        <f t="shared" ref="J160" si="699">BIN2HEX(J159,2)</f>
         <v>0B</v>
       </c>
       <c r="K160" s="6" t="str">
-        <f t="shared" ref="K160" si="694">I160&amp;J160</f>
+        <f t="shared" ref="K160" si="700">I160&amp;J160</f>
         <v>800B</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="O160" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P160" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>88</v>
       </c>
@@ -5322,57 +6578,73 @@
         <v>7040</v>
       </c>
       <c r="C161">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>11</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>B</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" ref="E161:E224" si="695">DEC2BIN(MOD(QUOTIENT(C161,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C161,256^0),256),8)</f>
+        <f t="shared" ref="E161" si="701">DEC2BIN(MOD(QUOTIENT(C161,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C161,256^0),256),8)</f>
         <v>0000000000001011</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001011</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" ref="H161:H224" si="696">RIGHT(F161,6)</f>
+        <f t="shared" ref="H161" si="702">RIGHT(F161,6)</f>
         <v>001011</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" ref="I161:I224" si="697">"1"&amp;$K$3&amp;G161</f>
+        <f t="shared" ref="I161" si="703">"1"&amp;$K$3&amp;G161</f>
         <v>10000000</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" ref="J161:J166" si="698">"00"&amp;H161</f>
+        <f t="shared" ref="J161" si="704">"00"&amp;H161</f>
         <v>00001011</v>
       </c>
       <c r="K161" s="6" t="str">
-        <f t="shared" ref="K161:K166" si="699">I162&amp;J162</f>
+        <f t="shared" ref="K161" si="705">I162&amp;J162</f>
         <v>800B</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="O161">
+        <f t="shared" si="595"/>
+        <v>11</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="604"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="I162" s="3" t="str">
-        <f t="shared" ref="I162:I225" si="700">BIN2HEX(I161)</f>
+        <f t="shared" ref="I162" si="706">BIN2HEX(I161)</f>
         <v>80</v>
       </c>
       <c r="J162" s="3" t="str">
-        <f t="shared" ref="J162:J166" si="701">BIN2HEX(J161,2)</f>
+        <f t="shared" ref="J162" si="707">BIN2HEX(J161,2)</f>
         <v>0B</v>
       </c>
       <c r="K162" s="6" t="str">
-        <f t="shared" ref="K162" si="702">I162&amp;J162</f>
+        <f t="shared" ref="K162" si="708">I162&amp;J162</f>
         <v>800B</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="O162" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P162" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -5380,57 +6652,73 @@
         <v>7458.62</v>
       </c>
       <c r="C163">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>10</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>A</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" ref="E163:E226" si="703">DEC2BIN(MOD(QUOTIENT(C163,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C163,256^0),256),8)</f>
+        <f t="shared" ref="E163" si="709">DEC2BIN(MOD(QUOTIENT(C163,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C163,256^0),256),8)</f>
         <v>0000000000001010</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001010</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" ref="H163:H226" si="704">RIGHT(F163,6)</f>
+        <f t="shared" ref="H163" si="710">RIGHT(F163,6)</f>
         <v>001010</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" ref="I163:I226" si="705">"1"&amp;$K$3&amp;G163</f>
+        <f t="shared" ref="I163" si="711">"1"&amp;$K$3&amp;G163</f>
         <v>10000000</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" ref="J163:J166" si="706">"00"&amp;H163</f>
+        <f t="shared" ref="J163" si="712">"00"&amp;H163</f>
         <v>00001010</v>
       </c>
       <c r="K163" s="6" t="str">
-        <f t="shared" ref="K163:K166" si="707">I164&amp;J164</f>
+        <f t="shared" ref="K163" si="713">I164&amp;J164</f>
         <v>800A</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="O163">
+        <f t="shared" si="595"/>
+        <v>10</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="604"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="I164" s="3" t="str">
-        <f t="shared" ref="I164:I227" si="708">BIN2HEX(I163)</f>
+        <f t="shared" ref="I164" si="714">BIN2HEX(I163)</f>
         <v>80</v>
       </c>
       <c r="J164" s="3" t="str">
-        <f t="shared" ref="J164:J166" si="709">BIN2HEX(J163,2)</f>
+        <f t="shared" ref="J164" si="715">BIN2HEX(J163,2)</f>
         <v>0A</v>
       </c>
       <c r="K164" s="6" t="str">
-        <f t="shared" ref="K164" si="710">I164&amp;J164</f>
+        <f t="shared" ref="K164" si="716">I164&amp;J164</f>
         <v>800A</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="O164" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P164" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -5438,69 +6726,85 @@
         <v>7902.13</v>
       </c>
       <c r="C165">
-        <f t="shared" si="507"/>
+        <f t="shared" si="511"/>
         <v>9</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f t="shared" si="508"/>
+        <f t="shared" si="512"/>
         <v>9</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" ref="E165:E228" si="711">DEC2BIN(MOD(QUOTIENT(C165,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C165,256^0),256),8)</f>
+        <f t="shared" ref="E165" si="717">DEC2BIN(MOD(QUOTIENT(C165,256^1),256),8)&amp;DEC2BIN(MOD(QUOTIENT(C165,256^0),256),8)</f>
         <v>0000000000001001</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="514"/>
         <v>0000001001</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="515"/>
         <v>0000</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" ref="H165:H228" si="712">RIGHT(F165,6)</f>
+        <f t="shared" ref="H165" si="718">RIGHT(F165,6)</f>
         <v>001001</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" ref="I165:I228" si="713">"1"&amp;$K$3&amp;G165</f>
+        <f t="shared" ref="I165" si="719">"1"&amp;$K$3&amp;G165</f>
         <v>10000000</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" ref="J165:J166" si="714">"00"&amp;H165</f>
+        <f t="shared" ref="J165" si="720">"00"&amp;H165</f>
         <v>00001001</v>
       </c>
       <c r="K165" s="6" t="str">
-        <f t="shared" ref="K165:K166" si="715">I166&amp;J166</f>
+        <f t="shared" ref="K165" si="721">I166&amp;J166</f>
         <v>8009</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="O165">
+        <f t="shared" si="595"/>
+        <v>9</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="604"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="I166" s="3" t="str">
-        <f t="shared" ref="I166:I229" si="716">BIN2HEX(I165)</f>
+        <f t="shared" ref="I166" si="722">BIN2HEX(I165)</f>
         <v>80</v>
       </c>
       <c r="J166" s="3" t="str">
-        <f t="shared" ref="J166" si="717">BIN2HEX(J165,2)</f>
+        <f t="shared" ref="J166" si="723">BIN2HEX(J165,2)</f>
         <v>09</v>
       </c>
       <c r="K166" s="6" t="str">
-        <f t="shared" ref="K166" si="718">I166&amp;J166</f>
+        <f t="shared" ref="K166" si="724">I166&amp;J166</f>
         <v>8009</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="O166" t="str">
+        <f t="shared" si="595"/>
+        <v/>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="604"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="D167" s="1"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:16">
       <c r="D169" s="1"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:16">
       <c r="D171" s="1"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:16">
       <c r="D173" s="1"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:16">
       <c r="D175" s="1"/>
     </row>
     <row r="177" spans="4:4">
